--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="20" windowWidth="36940" windowHeight="23340" tabRatio="500"/>
+    <workbookView xWindow="7820" yWindow="3460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,11 +727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097171800"/>
-        <c:axId val="2097162920"/>
+        <c:axId val="-2146238200"/>
+        <c:axId val="-2146232744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097171800"/>
+        <c:axId val="-2146238200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +760,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097162920"/>
+        <c:crossAx val="-2146232744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097162920"/>
+        <c:axId val="-2146232744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097171800"/>
+        <c:crossAx val="-2146238200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,11 +1246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099331496"/>
-        <c:axId val="2099336936"/>
+        <c:axId val="-2146343032"/>
+        <c:axId val="-2146337560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099331496"/>
+        <c:axId val="-2146343032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,12 +1279,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099336936"/>
+        <c:crossAx val="-2146337560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099336936"/>
+        <c:axId val="-2146337560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099331496"/>
+        <c:crossAx val="-2146343032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2417,11 +2417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099444600"/>
-        <c:axId val="2099450088"/>
+        <c:axId val="2109904440"/>
+        <c:axId val="2113687992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099444600"/>
+        <c:axId val="2109904440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2451,12 +2451,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099450088"/>
+        <c:crossAx val="2113687992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099450088"/>
+        <c:axId val="2113687992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099444600"/>
+        <c:crossAx val="2109904440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -24,16 +24,10 @@
     <t>Porosity</t>
   </si>
   <si>
-    <t>Youngs Module</t>
-  </si>
-  <si>
     <t>Bone</t>
   </si>
   <si>
     <t>Direction</t>
-  </si>
-  <si>
-    <t>Deviation</t>
   </si>
   <si>
     <t>KOSC K03RB1</t>
@@ -72,10 +66,16 @@
     <t>K05LA1</t>
   </si>
   <si>
-    <t>Youngs Module (without cutting)</t>
+    <t>Deviation (without cutting)</t>
   </si>
   <si>
-    <t>Deviation (without cutting)</t>
+    <t>Youngs Module [Mpa]</t>
+  </si>
+  <si>
+    <t>Youngs Module (without cutting) [Mpa]</t>
+  </si>
+  <si>
+    <t>Deviation [Mpa</t>
   </si>
 </sst>
 </file>
@@ -727,11 +727,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146238200"/>
-        <c:axId val="-2146232744"/>
+        <c:axId val="2097871176"/>
+        <c:axId val="2097877288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146238200"/>
+        <c:axId val="2097871176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +760,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146232744"/>
+        <c:crossAx val="2097877288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146232744"/>
+        <c:axId val="2097877288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146238200"/>
+        <c:crossAx val="2097871176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,11 +1246,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146343032"/>
-        <c:axId val="-2146337560"/>
+        <c:axId val="2097949752"/>
+        <c:axId val="2097955192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146343032"/>
+        <c:axId val="2097949752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,12 +1279,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146337560"/>
+        <c:crossAx val="2097955192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146337560"/>
+        <c:axId val="2097955192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146343032"/>
+        <c:crossAx val="2097949752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1357,7 +1357,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.023073775098012"/>
+          <c:y val="0.0540184453227931"/>
+          <c:w val="0.888872514991042"/>
+          <c:h val="0.919174421379146"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2417,11 +2427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109904440"/>
-        <c:axId val="2113687992"/>
+        <c:axId val="2098075016"/>
+        <c:axId val="2098080504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109904440"/>
+        <c:axId val="2098075016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2451,12 +2461,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113687992"/>
+        <c:crossAx val="2098080504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113687992"/>
+        <c:axId val="2098080504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109904440"/>
+        <c:crossAx val="2098075016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,16 +2582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2928,7 +2938,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2936,27 +2946,27 @@
     <col min="1" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60">
+    <row r="1" spans="1:12" ht="75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2978,7 +2988,7 @@
         <v>20.276900000000001</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -3003,7 +3013,7 @@
         <v>20.4831</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -3028,7 +3038,7 @@
         <v>19.372499999999999</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -3053,7 +3063,7 @@
         <v>12.927099999999999</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -3078,7 +3088,7 @@
         <v>6.1291000000000002</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -3103,7 +3113,7 @@
         <v>9.6501000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
@@ -3128,7 +3138,7 @@
         <v>8.8190000000000008</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -3153,7 +3163,7 @@
         <v>2.3294999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
@@ -3178,7 +3188,7 @@
         <v>6.9802</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
@@ -3203,7 +3213,7 @@
         <v>8.6662999999999997</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -3228,7 +3238,7 @@
         <v>8.4776000000000007</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3253,7 +3263,7 @@
         <v>7.1643999999999997</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -3278,7 +3288,7 @@
         <v>3.1227999999999998</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1">
         <v>2</v>
@@ -3303,7 +3313,7 @@
         <v>2.6619000000000002</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1">
         <v>3</v>
@@ -3328,7 +3338,7 @@
         <v>3.3132000000000001</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -3353,7 +3363,7 @@
         <v>2.9108000000000001</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1">
         <v>2</v>
@@ -3378,7 +3388,7 @@
         <v>4.9484000000000004</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
@@ -3403,7 +3413,7 @@
         <v>7.2103999999999999</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -3428,7 +3438,7 @@
         <v>1.0219</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -3453,7 +3463,7 @@
         <v>8.2385000000000002</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
         <v>3</v>
@@ -3478,7 +3488,7 @@
         <v>4.8127000000000004</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -3503,7 +3513,7 @@
         <v>2.1063000000000001</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
         <v>2</v>
@@ -3528,7 +3538,7 @@
         <v>6.0113000000000003</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1">
         <v>3</v>
@@ -3553,7 +3563,7 @@
         <v>4.6601999999999997</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -3578,7 +3588,7 @@
         <v>7.8902999999999999</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -3603,7 +3613,7 @@
         <v>1.7384599999999999</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1">
         <v>3</v>
@@ -3628,7 +3638,7 @@
         <v>9.7705000000000002</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3653,7 +3663,7 @@
         <v>4.8891</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -3678,7 +3688,7 @@
         <v>3.2040999999999999</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -3703,7 +3713,7 @@
         <v>6.7698999999999998</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -3728,7 +3738,7 @@
         <v>7.6550000000000002</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -3753,7 +3763,7 @@
         <v>14.5474</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3778,7 +3788,7 @@
         <v>11.697699999999999</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -3803,7 +3813,7 @@
         <v>14.992699999999999</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -3828,7 +3838,7 @@
         <v>15.706989999999999</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1">
         <v>3</v>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="3460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10340" yWindow="3240" windowWidth="23900" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>Porosity</t>
   </si>
@@ -69,13 +69,19 @@
     <t>Deviation (without cutting)</t>
   </si>
   <si>
-    <t>Youngs Module [Mpa]</t>
+    <t>Deviation [MPa]</t>
   </si>
   <si>
-    <t>Youngs Module (without cutting) [Mpa]</t>
+    <t>Youngs Module (without cutting) [MPa]</t>
   </si>
   <si>
-    <t>Deviation [Mpa</t>
+    <t>Youngs Module [MPa]</t>
+  </si>
+  <si>
+    <t>BV/TV</t>
+  </si>
+  <si>
+    <t>Youngs Module [Gpa]</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -172,7 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -190,6 +202,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -255,7 +270,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$36</c:f>
+                <c:f>Sheet1!$F$2:$F$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -369,7 +384,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$D$2:$D$36</c:f>
+                <c:f>Sheet1!$F$2:$F$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -727,11 +742,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097871176"/>
-        <c:axId val="2097877288"/>
+        <c:axId val="2065170360"/>
+        <c:axId val="2063043848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097871176"/>
+        <c:axId val="2065170360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,12 +775,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097877288"/>
+        <c:crossAx val="2063043848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097877288"/>
+        <c:axId val="2063043848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +815,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097871176"/>
+        <c:crossAx val="2065170360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,7 +901,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$36</c:f>
+                <c:f>Sheet1!$G$2:$G$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -1246,11 +1261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097949752"/>
-        <c:axId val="2097955192"/>
+        <c:axId val="2067727880"/>
+        <c:axId val="2069443688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097949752"/>
+        <c:axId val="2067727880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,12 +1294,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097955192"/>
+        <c:crossAx val="2069443688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097955192"/>
+        <c:axId val="2069443688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1334,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097949752"/>
+        <c:crossAx val="2067727880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1396,7 +1411,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$2:$E$4</c:f>
+                <c:f>Sheet1!$G$2:$G$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1484,7 +1499,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$5:$E$7</c:f>
+                <c:f>Sheet1!$G$5:$G$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1572,7 +1587,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$8:$E$10</c:f>
+                <c:f>Sheet1!$G$8:$G$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1660,7 +1675,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$11:$E$12</c:f>
+                <c:f>Sheet1!$G$11:$G$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1739,7 +1754,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$16:$E$18</c:f>
+                <c:f>Sheet1!$G$16:$G$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1827,7 +1842,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$19:$E$21</c:f>
+                <c:f>Sheet1!$G$19:$G$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1915,7 +1930,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$22:$E$24</c:f>
+                <c:f>Sheet1!$G$22:$G$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2003,7 +2018,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$D$25:$D$27</c:f>
+                <c:f>Sheet1!$F$25:$F$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2091,7 +2106,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$28:$E$30</c:f>
+                <c:f>Sheet1!$G$28:$G$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2179,7 +2194,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$31:$E$33</c:f>
+                <c:f>Sheet1!$G$31:$G$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2267,7 +2282,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$34:$E$36</c:f>
+                <c:f>Sheet1!$G$34:$G$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2355,7 +2370,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$13:$E$15</c:f>
+                <c:f>Sheet1!$G$13:$G$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2427,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2098075016"/>
-        <c:axId val="2098080504"/>
+        <c:axId val="2090381224"/>
+        <c:axId val="2063990824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2098075016"/>
+        <c:axId val="2090381224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2461,12 +2476,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098080504"/>
+        <c:crossAx val="2063990824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2098080504"/>
+        <c:axId val="2063990824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2511,640 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098075016"/>
+        <c:crossAx val="2090381224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.6095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5815</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5905</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>119.9144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.9383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.7523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.9672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151.7775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>154.156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>146.7375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>144.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119.595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.85299999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.4833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155.4625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>130.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149.7275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>65.8136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80.492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>138.5033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>127.2167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>157.29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>133.6167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>134.655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>128.352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110.773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76.9756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94.3426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2094939096"/>
+        <c:axId val="2094934184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2094939096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094934184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2094934184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1800.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2094939096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.6095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61075</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.62675</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.56875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5225</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64775</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.631</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5485</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5815</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5905</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69975</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.6135</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.61475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0.1199144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.135094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1070868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1159383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1057523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.070031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10425</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0749672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14164</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1517775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.154156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1467375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.119595</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.082853</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0620023</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.104699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.120527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1284833</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1554625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1497275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0658136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.080492</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.093966</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1385033</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1272167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15729</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1336167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.134655</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.128352</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.110773</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0769756</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0943426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2146028728"/>
+        <c:axId val="2146023752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2146028728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146023752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2146023752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2146028728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2522,13 +3170,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -2552,13 +3200,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -2582,13 +3230,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>355600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -2605,6 +3253,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2935,43 +3643,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="9" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="75">
+    <row r="1" spans="1:14" ht="75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:14" ht="30">
       <c r="A2" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -2982,21 +3696,28 @@
         <v>119.9144</v>
       </c>
       <c r="D2" s="1">
+        <f>C2*10^(-3)</f>
+        <v>0.1199144</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.60950000000000004</v>
+      </c>
+      <c r="F2" s="1">
         <v>22.260439999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>20.276900000000001</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:14" ht="30">
       <c r="A3" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -3007,21 +3728,28 @@
         <v>135.09399999999999</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" ref="D3:D36" si="0">C3*10^(-3)</f>
+        <v>0.13509399999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.60175000000000001</v>
+      </c>
+      <c r="F3" s="1">
         <v>16.64066</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>20.4831</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -3032,21 +3760,28 @@
         <v>107.0868</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1070868</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.57725000000000004</v>
+      </c>
+      <c r="F4" s="1">
         <v>17.69098</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>19.372499999999999</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="1">
         <v>0.67700000000000005</v>
       </c>
@@ -3057,21 +3792,28 @@
         <v>115.9383</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11593829999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52475000000000005</v>
+      </c>
+      <c r="F5" s="1">
         <v>11.9514</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>12.927099999999999</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="30">
+    <row r="6" spans="1:14" ht="30">
       <c r="A6" s="1">
         <v>0.66100000000000003</v>
       </c>
@@ -3082,21 +3824,28 @@
         <v>144.38499999999999</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14438499999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.53874999999999995</v>
+      </c>
+      <c r="F6" s="1">
         <v>15.03735</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>6.1291000000000002</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:14" ht="30">
       <c r="A7" s="1">
         <v>0.66200000000000003</v>
       </c>
@@ -3107,21 +3856,28 @@
         <v>105.75230000000001</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10575230000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="F7" s="1">
         <v>8.3253880000000002</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>9.6501000000000001</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="30">
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" s="1">
         <v>0.88300000000000001</v>
       </c>
@@ -3132,21 +3888,28 @@
         <v>70.031000000000006</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.003100000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.67974999999999997</v>
+      </c>
+      <c r="F8" s="1">
         <v>8.9394629999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>8.8190000000000008</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:14" ht="30">
       <c r="A9" s="1">
         <v>0.877</v>
       </c>
@@ -3157,21 +3920,28 @@
         <v>104.25</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10425</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="F9" s="1">
         <v>6.3232840000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>2.3294999999999999</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:14" ht="30">
       <c r="A10" s="1">
         <v>0.88</v>
       </c>
@@ -3182,21 +3952,28 @@
         <v>74.967200000000005</v>
       </c>
       <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4967200000000012E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.63624999999999998</v>
+      </c>
+      <c r="F10" s="1">
         <v>7.5372250000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>6.9802</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -3207,21 +3984,28 @@
         <v>141.63999999999999</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14163999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F11" s="1">
         <v>12.72762</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <v>8.6662999999999997</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>0.69899999999999995</v>
       </c>
@@ -3232,21 +4016,28 @@
         <v>151.7775</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15177750000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.54774999999999996</v>
+      </c>
+      <c r="F12" s="1">
         <v>2.5204</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>8.4776000000000007</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>0.64500000000000002</v>
       </c>
@@ -3257,21 +4048,28 @@
         <v>154.15600000000001</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15415600000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F13" s="1">
         <v>7.310073</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>7.1643999999999997</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>0.65</v>
       </c>
@@ -3282,21 +4080,28 @@
         <v>146.73750000000001</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14673750000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="F14" s="1">
         <v>5.5311139999999996</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <v>3.1227999999999998</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>0.64600000000000002</v>
       </c>
@@ -3307,21 +4112,28 @@
         <v>144.06</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14405999999999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.52224999999999999</v>
+      </c>
+      <c r="F15" s="1">
         <v>1.0212000000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>2.6619000000000002</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>3</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>0.83799999999999997</v>
       </c>
@@ -3332,21 +4144,28 @@
         <v>119.595</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11959500000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.61075000000000002</v>
+      </c>
+      <c r="F16" s="1">
         <v>7.4688439999999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <v>3.3132000000000001</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -3357,21 +4176,28 @@
         <v>82.852999999999994</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.2852999999999996E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F17" s="1">
         <v>4.4749249999999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <v>2.9108000000000001</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>0.83599999999999997</v>
       </c>
@@ -3382,21 +4208,25 @@
         <v>62.002299999999998</v>
       </c>
       <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2002299999999996E-2</v>
+      </c>
+      <c r="F18" s="1">
         <v>10.1004</v>
       </c>
-      <c r="E18" s="1">
+      <c r="G18" s="1">
         <v>4.9484000000000004</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>0.73499999999999999</v>
       </c>
@@ -3407,21 +4237,28 @@
         <v>104.699</v>
       </c>
       <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.104699</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F19" s="1">
         <v>6.6006270000000002</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
         <v>7.2103999999999999</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>0.73399999999999999</v>
       </c>
@@ -3432,21 +4269,28 @@
         <v>120.527</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12052700000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.56125000000000003</v>
+      </c>
+      <c r="F20" s="1">
         <v>3.64811</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
         <v>1.0219</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -3457,21 +4301,28 @@
         <v>128.48330000000001</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12848330000000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.62675000000000003</v>
+      </c>
+      <c r="F21" s="1">
         <v>14.953580000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
         <v>8.2385000000000002</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>0.626</v>
       </c>
@@ -3482,21 +4333,28 @@
         <v>155.46250000000001</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1554625</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="F22" s="1">
         <v>11.98908</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
         <v>4.8127000000000004</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
@@ -3507,21 +4365,28 @@
         <v>130.77000000000001</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13077000000000003</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="F23" s="1">
         <v>4.5773489999999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
         <v>2.1063000000000001</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I23" s="1">
         <v>2</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>0.628</v>
       </c>
@@ -3532,21 +4397,28 @@
         <v>149.72749999999999</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14972749999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.54325000000000001</v>
+      </c>
+      <c r="F24" s="1">
         <v>10.62941</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
         <v>6.0113000000000003</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>0.84499999999999997</v>
       </c>
@@ -3557,21 +4429,28 @@
         <v>65.813599999999994</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>6.58136E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.64775000000000005</v>
+      </c>
+      <c r="F25" s="1">
         <v>8.0517880000000002</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
         <v>4.6601999999999997</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -3582,21 +4461,28 @@
         <v>80.492000000000004</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0492000000000008E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.63775000000000004</v>
+      </c>
+      <c r="F26" s="1">
         <v>7.7090019999999999</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
         <v>7.8902999999999999</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -3607,21 +4493,28 @@
         <v>93.965999999999994</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3965999999999994E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F27" s="1">
         <v>9.1276159999999997</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
         <v>1.7384599999999999</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I27" s="1">
         <v>3</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>0.66700000000000004</v>
       </c>
@@ -3632,21 +4525,28 @@
         <v>138.5033</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1385033</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="F28" s="1">
         <v>10.335570000000001</v>
       </c>
-      <c r="E28" s="1">
+      <c r="G28" s="1">
         <v>9.7705000000000002</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>0.66500000000000004</v>
       </c>
@@ -3657,21 +4557,28 @@
         <v>127.2167</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12721670000000002</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="F29" s="1">
         <v>10.984450000000001</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
         <v>4.8891</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>0.66600000000000004</v>
       </c>
@@ -3682,21 +4589,28 @@
         <v>157.29</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15728999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="F30" s="1">
         <v>12.808199999999999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
         <v>3.2040999999999999</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -3707,21 +4621,28 @@
         <v>133.61670000000001</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1336167</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F31" s="1">
         <v>19.115870000000001</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
         <v>6.7698999999999998</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -3732,21 +4653,28 @@
         <v>134.655</v>
       </c>
       <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.134655</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="F32" s="1">
         <v>12.923780000000001</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
         <v>7.6550000000000002</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -3757,21 +4685,28 @@
         <v>128.352</v>
       </c>
       <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12835199999999999</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F33" s="1">
         <v>16.249099999999999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
         <v>14.5474</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>0.84299999999999997</v>
       </c>
@@ -3782,21 +4717,28 @@
         <v>110.773</v>
       </c>
       <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.110773</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="F34" s="1">
         <v>11.1435</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
         <v>11.697699999999999</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="1">
+      <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>0.83499999999999996</v>
       </c>
@@ -3807,21 +4749,28 @@
         <v>76.9756</v>
       </c>
       <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6975600000000005E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="F35" s="1">
         <v>15.896229999999999</v>
       </c>
-      <c r="E35" s="1">
+      <c r="G35" s="1">
         <v>14.992699999999999</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="1">
+      <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -3832,15 +4781,22 @@
         <v>94.342600000000004</v>
       </c>
       <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4342600000000013E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.61475000000000002</v>
+      </c>
+      <c r="F36" s="1">
         <v>13.6165</v>
       </c>
-      <c r="E36" s="1">
+      <c r="G36" s="1">
         <v>15.706989999999999</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="1">
+      <c r="I36" s="1">
         <v>3</v>
       </c>
     </row>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Porosity</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Youngs Module [Gpa]</t>
+  </si>
+  <si>
+    <t>Deviation [Gpa]</t>
   </si>
 </sst>
 </file>
@@ -169,8 +172,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -208,19 +263,71 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -270,7 +377,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$2:$F$36</c:f>
+                <c:f>Sheet1!$C$2:$C$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -384,7 +491,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$F$2:$F$36</c:f>
+                <c:f>Sheet1!$C$2:$C$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -742,11 +849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065170360"/>
-        <c:axId val="2063043848"/>
+        <c:axId val="2078634008"/>
+        <c:axId val="2107213400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065170360"/>
+        <c:axId val="2078634008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,12 +882,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063043848"/>
+        <c:crossAx val="2107213400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2063043848"/>
+        <c:axId val="2107213400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +922,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065170360"/>
+        <c:crossAx val="2078634008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -901,7 +1008,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$36</c:f>
+                <c:f>Sheet1!$E$2:$E$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
@@ -1139,7 +1246,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:f>Sheet1!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -1261,11 +1368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067727880"/>
-        <c:axId val="2069443688"/>
+        <c:axId val="2107252952"/>
+        <c:axId val="2107258392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067727880"/>
+        <c:axId val="2107252952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,12 +1401,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069443688"/>
+        <c:crossAx val="2107258392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069443688"/>
+        <c:axId val="2107258392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1334,7 +1441,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067727880"/>
+        <c:crossAx val="2107252952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1377,10 +1484,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.023073775098012"/>
+          <c:x val="0.039026755786509"/>
           <c:y val="0.0540184453227931"/>
-          <c:w val="0.888872514991042"/>
-          <c:h val="0.919174421379146"/>
+          <c:w val="0.86788175092723"/>
+          <c:h val="0.892592145918469"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1411,7 +1518,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$2:$G$4</c:f>
+                <c:f>Sheet1!$E$2:$E$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1457,7 +1564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1499,7 +1606,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$5:$G$7</c:f>
+                <c:f>Sheet1!$E$5:$E$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1545,7 +1652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:f>Sheet1!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1587,7 +1694,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$8:$G$10</c:f>
+                <c:f>Sheet1!$E$8:$E$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1633,7 +1740,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$10</c:f>
+              <c:f>Sheet1!$D$8:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1675,7 +1782,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$11:$G$12</c:f>
+                <c:f>Sheet1!$E$11:$E$12</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -1715,7 +1822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$C$12</c:f>
+              <c:f>Sheet1!$D$11:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1754,7 +1861,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$16:$G$18</c:f>
+                <c:f>Sheet1!$E$16:$E$18</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1800,7 +1907,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$18</c:f>
+              <c:f>Sheet1!$D$16:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1842,7 +1949,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$19:$G$21</c:f>
+                <c:f>Sheet1!$E$19:$E$21</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1888,7 +1995,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$21</c:f>
+              <c:f>Sheet1!$D$19:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1930,7 +2037,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$22:$G$24</c:f>
+                <c:f>Sheet1!$E$22:$E$24</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -1976,7 +2083,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:f>Sheet1!$D$22:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2018,7 +2125,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$25:$F$27</c:f>
+                <c:f>Sheet1!$C$25:$C$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2064,7 +2171,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$27</c:f>
+              <c:f>Sheet1!$D$25:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2106,7 +2213,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$28:$G$30</c:f>
+                <c:f>Sheet1!$E$28:$E$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2152,7 +2259,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$30</c:f>
+              <c:f>Sheet1!$D$28:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2194,7 +2301,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$31:$G$33</c:f>
+                <c:f>Sheet1!$E$31:$E$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2240,7 +2347,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$31:$C$33</c:f>
+              <c:f>Sheet1!$D$31:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2282,7 +2389,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$34:$G$36</c:f>
+                <c:f>Sheet1!$E$34:$E$36</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2328,7 +2435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$C$36</c:f>
+              <c:f>Sheet1!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2370,7 +2477,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$G$13:$G$15</c:f>
+                <c:f>Sheet1!$E$13:$E$15</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -2416,7 +2523,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$15</c:f>
+              <c:f>Sheet1!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2442,11 +2549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090381224"/>
-        <c:axId val="2063990824"/>
+        <c:axId val="2107377352"/>
+        <c:axId val="2107382840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090381224"/>
+        <c:axId val="2107377352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2476,12 +2583,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063990824"/>
+        <c:crossAx val="2107382840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2063990824"/>
+        <c:axId val="2107382840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2606,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Young's Module</a:t>
+                  <a:t>Young's Module [MPa]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2511,7 +2618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090381224"/>
+        <c:crossAx val="2107377352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2563,7 +2670,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:f>Sheet1!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2674,7 +2781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:f>Sheet1!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2796,11 +2903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094939096"/>
-        <c:axId val="2094934184"/>
+        <c:axId val="2107280216"/>
+        <c:axId val="2107277464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094939096"/>
+        <c:axId val="2107280216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2811,12 +2918,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094934184"/>
+        <c:crossAx val="2107277464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094934184"/>
+        <c:axId val="2107277464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800.0"/>
@@ -2828,7 +2935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094939096"/>
+        <c:crossAx val="2107280216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2880,7 +2987,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:f>Sheet1!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2991,7 +3098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$36</c:f>
+              <c:f>Sheet1!$F$2:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3113,11 +3220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2146028728"/>
-        <c:axId val="2146023752"/>
+        <c:axId val="2107412280"/>
+        <c:axId val="2107415304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2146028728"/>
+        <c:axId val="2107412280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,12 +3234,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146023752"/>
+        <c:crossAx val="2107415304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2146023752"/>
+        <c:axId val="2107415304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -3144,7 +3251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2146028728"/>
+        <c:crossAx val="2107412280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3170,13 +3277,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
@@ -3200,13 +3307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3230,16 +3337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3260,16 +3367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3290,16 +3397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3643,49 +3750,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E36"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="9" width="10.83203125" style="1"/>
+    <col min="1" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="75">
+    <row r="1" spans="1:15" ht="75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="30">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -3693,31 +3803,35 @@
         <v>120.2458</v>
       </c>
       <c r="C2" s="1">
+        <v>22.260439999999999</v>
+      </c>
+      <c r="D2" s="1">
         <v>119.9144</v>
       </c>
-      <c r="D2" s="1">
-        <f>C2*10^(-3)</f>
+      <c r="E2" s="1">
+        <v>20.276900000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*10^(-3)</f>
         <v>0.1199144</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
+        <f>E2*10^(-3)</f>
+        <v>2.02769E-2</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.60950000000000004</v>
       </c>
-      <c r="F2" s="1">
-        <v>22.260439999999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20.276900000000001</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="M2" s="1"/>
       <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="30">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -3725,31 +3839,35 @@
         <v>138.16</v>
       </c>
       <c r="C3" s="1">
+        <v>16.64066</v>
+      </c>
+      <c r="D3" s="1">
         <v>135.09399999999999</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D36" si="0">C3*10^(-3)</f>
+      <c r="E3" s="1">
+        <v>20.4831</v>
+      </c>
+      <c r="F3" s="1">
+        <f>D3*10^(-3)</f>
         <v>0.13509399999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
+        <f>E3*10^(-3)</f>
+        <v>2.0483100000000001E-2</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.60175000000000001</v>
       </c>
-      <c r="F3" s="1">
-        <v>16.64066</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20.4831</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -3757,31 +3875,35 @@
         <v>107.146</v>
       </c>
       <c r="C4" s="1">
+        <v>17.69098</v>
+      </c>
+      <c r="D4" s="1">
         <v>107.0868</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
+      <c r="E4" s="1">
+        <v>19.372499999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <f>D4*10^(-3)</f>
         <v>0.1070868</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
+        <f>E4*10^(-3)</f>
+        <v>1.9372500000000001E-2</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.57725000000000004</v>
       </c>
-      <c r="F4" s="1">
-        <v>17.69098</v>
-      </c>
-      <c r="G4" s="1">
-        <v>19.372499999999999</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="1">
         <v>0.67700000000000005</v>
       </c>
@@ -3789,31 +3911,35 @@
         <v>122.55329999999999</v>
       </c>
       <c r="C5" s="1">
+        <v>11.9514</v>
+      </c>
+      <c r="D5" s="1">
         <v>115.9383</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
+      <c r="E5" s="1">
+        <v>12.927099999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5*10^(-3)</f>
         <v>0.11593829999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
+        <f>E5*10^(-3)</f>
+        <v>1.29271E-2</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.52475000000000005</v>
       </c>
-      <c r="F5" s="1">
-        <v>11.9514</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12.927099999999999</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30">
+    <row r="6" spans="1:15" ht="30">
       <c r="A6" s="1">
         <v>0.66100000000000003</v>
       </c>
@@ -3821,31 +3947,35 @@
         <v>141.465</v>
       </c>
       <c r="C6" s="1">
+        <v>15.03735</v>
+      </c>
+      <c r="D6" s="1">
         <v>144.38499999999999</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E6" s="1">
+        <v>6.1291000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <f>D6*10^(-3)</f>
         <v>0.14438499999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
+        <f>E6*10^(-3)</f>
+        <v>6.1291000000000002E-3</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.53874999999999995</v>
       </c>
-      <c r="F6" s="1">
-        <v>15.03735</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.1291000000000002</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="1">
         <v>0.66200000000000003</v>
       </c>
@@ -3853,31 +3983,35 @@
         <v>113.7833</v>
       </c>
       <c r="C7" s="1">
+        <v>8.3253880000000002</v>
+      </c>
+      <c r="D7" s="1">
         <v>105.75230000000001</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="1">
+        <v>9.6501000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*10^(-3)</f>
         <v>0.10575230000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
+        <f>E7*10^(-3)</f>
+        <v>9.6501E-3</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.53849999999999998</v>
       </c>
-      <c r="F7" s="1">
-        <v>8.3253880000000002</v>
-      </c>
-      <c r="G7" s="1">
-        <v>9.6501000000000001</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="30">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="1">
         <v>0.88300000000000001</v>
       </c>
@@ -3885,31 +4019,35 @@
         <v>69.26925</v>
       </c>
       <c r="C8" s="1">
+        <v>8.9394629999999999</v>
+      </c>
+      <c r="D8" s="1">
         <v>70.031000000000006</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E8" s="1">
+        <v>8.8190000000000008</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D8*10^(-3)</f>
         <v>7.003100000000001E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
+        <f>E8*10^(-3)</f>
+        <v>8.8190000000000004E-3</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.67974999999999997</v>
       </c>
-      <c r="F8" s="1">
-        <v>8.9394629999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8.8190000000000008</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="30">
+    <row r="9" spans="1:15" ht="30">
       <c r="A9" s="1">
         <v>0.877</v>
       </c>
@@ -3917,31 +4055,35 @@
         <v>105.2865</v>
       </c>
       <c r="C9" s="1">
+        <v>6.3232840000000001</v>
+      </c>
+      <c r="D9" s="1">
         <v>104.25</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E9" s="1">
+        <v>2.3294999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*10^(-3)</f>
         <v>0.10425</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
+        <f>E9*10^(-3)</f>
+        <v>2.3295E-3</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.60750000000000004</v>
       </c>
-      <c r="F9" s="1">
-        <v>6.3232840000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2.3294999999999999</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:15" ht="30">
       <c r="A10" s="1">
         <v>0.88</v>
       </c>
@@ -3949,31 +4091,35 @@
         <v>73.793000000000006</v>
       </c>
       <c r="C10" s="1">
+        <v>7.5372250000000003</v>
+      </c>
+      <c r="D10" s="1">
         <v>74.967200000000005</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E10" s="1">
+        <v>6.9802</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10*10^(-3)</f>
         <v>7.4967200000000012E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
+        <f>E10*10^(-3)</f>
+        <v>6.9801999999999998E-3</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.63624999999999998</v>
       </c>
-      <c r="F10" s="1">
-        <v>7.5372250000000003</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6.9802</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -3981,31 +4127,35 @@
         <v>142.10400000000001</v>
       </c>
       <c r="C11" s="1">
+        <v>12.72762</v>
+      </c>
+      <c r="D11" s="1">
         <v>141.63999999999999</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
+      <c r="E11" s="1">
+        <v>8.6662999999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*10^(-3)</f>
         <v>0.14163999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
+        <f>E11*10^(-3)</f>
+        <v>8.6663E-3</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F11" s="1">
-        <v>12.72762</v>
-      </c>
-      <c r="G11" s="1">
-        <v>8.6662999999999997</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>2</v>
       </c>
-      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>0.69899999999999995</v>
       </c>
@@ -4013,31 +4163,35 @@
         <v>151.4425</v>
       </c>
       <c r="C12" s="1">
+        <v>2.5204</v>
+      </c>
+      <c r="D12" s="1">
         <v>151.7775</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
+      <c r="E12" s="1">
+        <v>8.4776000000000007</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D12*10^(-3)</f>
         <v>0.15177750000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
+        <f>E12*10^(-3)</f>
+        <v>8.4776000000000001E-3</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.54774999999999996</v>
       </c>
-      <c r="F12" s="1">
-        <v>2.5204</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8.4776000000000007</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>0.64500000000000002</v>
       </c>
@@ -4045,31 +4199,35 @@
         <v>150.47999999999999</v>
       </c>
       <c r="C13" s="1">
+        <v>7.310073</v>
+      </c>
+      <c r="D13" s="1">
         <v>154.15600000000001</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
+      <c r="E13" s="1">
+        <v>7.1643999999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13*10^(-3)</f>
         <v>0.15415600000000002</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
+        <f>E13*10^(-3)</f>
+        <v>7.1643999999999996E-3</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F13" s="1">
-        <v>7.310073</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7.1643999999999997</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>0.65</v>
       </c>
@@ -4077,31 +4235,35 @@
         <v>145.48500000000001</v>
       </c>
       <c r="C14" s="1">
+        <v>5.5311139999999996</v>
+      </c>
+      <c r="D14" s="1">
         <v>146.73750000000001</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
+      <c r="E14" s="1">
+        <v>3.1227999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14*10^(-3)</f>
         <v>0.14673750000000002</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
+        <f>E14*10^(-3)</f>
+        <v>3.1227999999999998E-3</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.51049999999999995</v>
       </c>
-      <c r="F14" s="1">
-        <v>5.5311139999999996</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3.1227999999999998</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="M14" s="1"/>
       <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>0.64600000000000002</v>
       </c>
@@ -4109,31 +4271,35 @@
         <v>142.83330000000001</v>
       </c>
       <c r="C15" s="1">
+        <v>1.0212000000000001</v>
+      </c>
+      <c r="D15" s="1">
         <v>144.06</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
+      <c r="E15" s="1">
+        <v>2.6619000000000002</v>
+      </c>
+      <c r="F15" s="1">
+        <f>D15*10^(-3)</f>
         <v>0.14405999999999999</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
+        <f>E15*10^(-3)</f>
+        <v>2.6619E-3</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.52224999999999999</v>
       </c>
-      <c r="F15" s="1">
-        <v>1.0212000000000001</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2.6619000000000002</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>3</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>0.83799999999999997</v>
       </c>
@@ -4141,31 +4307,35 @@
         <v>117.455</v>
       </c>
       <c r="C16" s="1">
+        <v>7.4688439999999998</v>
+      </c>
+      <c r="D16" s="1">
         <v>119.595</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
+      <c r="E16" s="1">
+        <v>3.3132000000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16*10^(-3)</f>
         <v>0.11959500000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
+        <f>E16*10^(-3)</f>
+        <v>3.3132000000000001E-3</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.61075000000000002</v>
       </c>
-      <c r="F16" s="1">
-        <v>7.4688439999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3.3132000000000001</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -4173,31 +4343,35 @@
         <v>77.036670000000001</v>
       </c>
       <c r="C17" s="1">
+        <v>4.4749249999999998</v>
+      </c>
+      <c r="D17" s="1">
         <v>82.852999999999994</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
+      <c r="E17" s="1">
+        <v>2.9108000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <f>D17*10^(-3)</f>
         <v>8.2852999999999996E-2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
+        <f>E17*10^(-3)</f>
+        <v>2.9108000000000003E-3</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.59199999999999997</v>
       </c>
-      <c r="F17" s="1">
-        <v>4.4749249999999998</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.9108000000000001</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>0.83599999999999997</v>
       </c>
@@ -4205,28 +4379,32 @@
         <v>57.039200000000001</v>
       </c>
       <c r="C18" s="1">
+        <v>10.1004</v>
+      </c>
+      <c r="D18" s="1">
         <v>62.002299999999998</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
+      <c r="E18" s="1">
+        <v>4.9484000000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <f>D18*10^(-3)</f>
         <v>6.2002299999999996E-2</v>
       </c>
-      <c r="F18" s="1">
-        <v>10.1004</v>
-      </c>
       <c r="G18" s="1">
-        <v>4.9484000000000004</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <f>E18*10^(-3)</f>
+        <v>4.9484000000000004E-3</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>3</v>
       </c>
-      <c r="M18" s="1"/>
       <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>0.73499999999999999</v>
       </c>
@@ -4234,31 +4412,35 @@
         <v>106.2273</v>
       </c>
       <c r="C19" s="1">
+        <v>6.6006270000000002</v>
+      </c>
+      <c r="D19" s="1">
         <v>104.699</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
+      <c r="E19" s="1">
+        <v>7.2103999999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f>D19*10^(-3)</f>
         <v>0.104699</v>
       </c>
-      <c r="E19" s="1">
+      <c r="G19" s="1">
+        <f>E19*10^(-3)</f>
+        <v>7.2104000000000005E-3</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F19" s="1">
-        <v>6.6006270000000002</v>
-      </c>
-      <c r="G19" s="1">
-        <v>7.2103999999999999</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>1</v>
       </c>
-      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>0.73399999999999999</v>
       </c>
@@ -4266,31 +4448,35 @@
         <v>121.3567</v>
       </c>
       <c r="C20" s="1">
+        <v>3.64811</v>
+      </c>
+      <c r="D20" s="1">
         <v>120.527</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
+      <c r="E20" s="1">
+        <v>1.0219</v>
+      </c>
+      <c r="F20" s="1">
+        <f>D20*10^(-3)</f>
         <v>0.12052700000000001</v>
       </c>
-      <c r="E20" s="1">
+      <c r="G20" s="1">
+        <f>E20*10^(-3)</f>
+        <v>1.0219000000000001E-3</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.56125000000000003</v>
       </c>
-      <c r="F20" s="1">
-        <v>3.64811</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.0219</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -4298,31 +4484,35 @@
         <v>131.47669999999999</v>
       </c>
       <c r="C21" s="1">
+        <v>14.953580000000001</v>
+      </c>
+      <c r="D21" s="1">
         <v>128.48330000000001</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
+      <c r="E21" s="1">
+        <v>8.2385000000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <f>D21*10^(-3)</f>
         <v>0.12848330000000002</v>
       </c>
-      <c r="E21" s="1">
+      <c r="G21" s="1">
+        <f>E21*10^(-3)</f>
+        <v>8.238500000000001E-3</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.62675000000000003</v>
       </c>
-      <c r="F21" s="1">
-        <v>14.953580000000001</v>
-      </c>
-      <c r="G21" s="1">
-        <v>8.2385000000000002</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>0.626</v>
       </c>
@@ -4330,31 +4520,35 @@
         <v>152.465</v>
       </c>
       <c r="C22" s="1">
+        <v>11.98908</v>
+      </c>
+      <c r="D22" s="1">
         <v>155.46250000000001</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
+      <c r="E22" s="1">
+        <v>4.8127000000000004</v>
+      </c>
+      <c r="F22" s="1">
+        <f>D22*10^(-3)</f>
         <v>0.1554625</v>
       </c>
-      <c r="E22" s="1">
+      <c r="G22" s="1">
+        <f>E22*10^(-3)</f>
+        <v>4.8127000000000005E-3</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.56874999999999998</v>
       </c>
-      <c r="F22" s="1">
-        <v>11.98908</v>
-      </c>
-      <c r="G22" s="1">
-        <v>4.8127000000000004</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
@@ -4362,31 +4556,35 @@
         <v>133.38499999999999</v>
       </c>
       <c r="C23" s="1">
+        <v>4.5773489999999999</v>
+      </c>
+      <c r="D23" s="1">
         <v>130.77000000000001</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
+      <c r="E23" s="1">
+        <v>2.1063000000000001</v>
+      </c>
+      <c r="F23" s="1">
+        <f>D23*10^(-3)</f>
         <v>0.13077000000000003</v>
       </c>
-      <c r="E23" s="1">
+      <c r="G23" s="1">
+        <f>E23*10^(-3)</f>
+        <v>2.1063000000000002E-3</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.52249999999999996</v>
       </c>
-      <c r="F23" s="1">
-        <v>4.5773489999999999</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2.1063000000000001</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>0.628</v>
       </c>
@@ -4394,31 +4592,35 @@
         <v>151.755</v>
       </c>
       <c r="C24" s="1">
+        <v>10.62941</v>
+      </c>
+      <c r="D24" s="1">
         <v>149.72749999999999</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
+      <c r="E24" s="1">
+        <v>6.0113000000000003</v>
+      </c>
+      <c r="F24" s="1">
+        <f>D24*10^(-3)</f>
         <v>0.14972749999999999</v>
       </c>
-      <c r="E24" s="1">
+      <c r="G24" s="1">
+        <f>E24*10^(-3)</f>
+        <v>6.0113000000000007E-3</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.54325000000000001</v>
       </c>
-      <c r="F24" s="1">
-        <v>10.62941</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6.0113000000000003</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>3</v>
       </c>
-      <c r="M24" s="1"/>
       <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>0.84499999999999997</v>
       </c>
@@ -4426,31 +4628,35 @@
         <v>69.661000000000001</v>
       </c>
       <c r="C25" s="1">
+        <v>8.0517880000000002</v>
+      </c>
+      <c r="D25" s="1">
         <v>65.813599999999994</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E25" s="1">
+        <v>4.6601999999999997</v>
+      </c>
+      <c r="F25" s="1">
+        <f>D25*10^(-3)</f>
         <v>6.58136E-2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="G25" s="1">
+        <f>E25*10^(-3)</f>
+        <v>4.6601999999999998E-3</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.64775000000000005</v>
       </c>
-      <c r="F25" s="1">
-        <v>8.0517880000000002</v>
-      </c>
-      <c r="G25" s="1">
-        <v>4.6601999999999997</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="M25" s="1"/>
       <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -4458,31 +4664,35 @@
         <v>80.061999999999998</v>
       </c>
       <c r="C26" s="1">
+        <v>7.7090019999999999</v>
+      </c>
+      <c r="D26" s="1">
         <v>80.492000000000004</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
+      <c r="E26" s="1">
+        <v>7.8902999999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <f>D26*10^(-3)</f>
         <v>8.0492000000000008E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="G26" s="1">
+        <f>E26*10^(-3)</f>
+        <v>7.8902999999999994E-3</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.63775000000000004</v>
       </c>
-      <c r="F26" s="1">
-        <v>7.7090019999999999</v>
-      </c>
-      <c r="G26" s="1">
-        <v>7.8902999999999999</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -4490,31 +4700,35 @@
         <v>90.271330000000006</v>
       </c>
       <c r="C27" s="1">
+        <v>9.1276159999999997</v>
+      </c>
+      <c r="D27" s="1">
         <v>93.965999999999994</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
+      <c r="E27" s="1">
+        <v>1.7384599999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27*10^(-3)</f>
         <v>9.3965999999999994E-2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="G27" s="1">
+        <f>E27*10^(-3)</f>
+        <v>1.7384599999999998E-3</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F27" s="1">
-        <v>9.1276159999999997</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1.7384599999999999</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>0.66700000000000004</v>
       </c>
@@ -4522,31 +4736,35 @@
         <v>140.04329999999999</v>
       </c>
       <c r="C28" s="1">
+        <v>10.335570000000001</v>
+      </c>
+      <c r="D28" s="1">
         <v>138.5033</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
+      <c r="E28" s="1">
+        <v>9.7705000000000002</v>
+      </c>
+      <c r="F28" s="1">
+        <f>D28*10^(-3)</f>
         <v>0.1385033</v>
       </c>
-      <c r="E28" s="1">
+      <c r="G28" s="1">
+        <f>E28*10^(-3)</f>
+        <v>9.7704999999999997E-3</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.54849999999999999</v>
       </c>
-      <c r="F28" s="1">
-        <v>10.335570000000001</v>
-      </c>
-      <c r="G28" s="1">
-        <v>9.7705000000000002</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1"/>
       <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>0.66500000000000004</v>
       </c>
@@ -4554,31 +4772,35 @@
         <v>125.4633</v>
       </c>
       <c r="C29" s="1">
+        <v>10.984450000000001</v>
+      </c>
+      <c r="D29" s="1">
         <v>127.2167</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
+      <c r="E29" s="1">
+        <v>4.8891</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D29*10^(-3)</f>
         <v>0.12721670000000002</v>
       </c>
-      <c r="E29" s="1">
+      <c r="G29" s="1">
+        <f>E29*10^(-3)</f>
+        <v>4.8891000000000004E-3</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.58150000000000002</v>
       </c>
-      <c r="F29" s="1">
-        <v>10.984450000000001</v>
-      </c>
-      <c r="G29" s="1">
-        <v>4.8891</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>0.66600000000000004</v>
       </c>
@@ -4586,31 +4808,35 @@
         <v>152.16249999999999</v>
       </c>
       <c r="C30" s="1">
+        <v>12.808199999999999</v>
+      </c>
+      <c r="D30" s="1">
         <v>157.29</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
+      <c r="E30" s="1">
+        <v>3.2040999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30*10^(-3)</f>
         <v>0.15728999999999999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="G30" s="1">
+        <f>E30*10^(-3)</f>
+        <v>3.2041000000000001E-3</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.59050000000000002</v>
       </c>
-      <c r="F30" s="1">
-        <v>12.808199999999999</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3.2040999999999999</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -4618,31 +4844,35 @@
         <v>124.5617</v>
       </c>
       <c r="C31" s="1">
+        <v>19.115870000000001</v>
+      </c>
+      <c r="D31" s="1">
         <v>133.61670000000001</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
+      <c r="E31" s="1">
+        <v>6.7698999999999998</v>
+      </c>
+      <c r="F31" s="1">
+        <f>D31*10^(-3)</f>
         <v>0.1336167</v>
       </c>
-      <c r="E31" s="1">
+      <c r="G31" s="1">
+        <f>E31*10^(-3)</f>
+        <v>6.7698999999999997E-3</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.53</v>
       </c>
-      <c r="F31" s="1">
-        <v>19.115870000000001</v>
-      </c>
-      <c r="G31" s="1">
-        <v>6.7698999999999998</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -4650,31 +4880,35 @@
         <v>139.3075</v>
       </c>
       <c r="C32" s="1">
+        <v>12.923780000000001</v>
+      </c>
+      <c r="D32" s="1">
         <v>134.655</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
+      <c r="E32" s="1">
+        <v>7.6550000000000002</v>
+      </c>
+      <c r="F32" s="1">
+        <f>D32*10^(-3)</f>
         <v>0.134655</v>
       </c>
-      <c r="E32" s="1">
+      <c r="G32" s="1">
+        <f>E32*10^(-3)</f>
+        <v>7.6550000000000003E-3</v>
+      </c>
+      <c r="H32" s="1">
         <v>0.5625</v>
       </c>
-      <c r="F32" s="1">
-        <v>12.923780000000001</v>
-      </c>
-      <c r="G32" s="1">
-        <v>7.6550000000000002</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>2</v>
       </c>
-      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -4682,31 +4916,35 @@
         <v>130.708</v>
       </c>
       <c r="C33" s="1">
+        <v>16.249099999999999</v>
+      </c>
+      <c r="D33" s="1">
         <v>128.352</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
+      <c r="E33" s="1">
+        <v>14.5474</v>
+      </c>
+      <c r="F33" s="1">
+        <f>D33*10^(-3)</f>
         <v>0.12835199999999999</v>
       </c>
-      <c r="E33" s="1">
+      <c r="G33" s="1">
+        <f>E33*10^(-3)</f>
+        <v>1.45474E-2</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.59899999999999998</v>
       </c>
-      <c r="F33" s="1">
-        <v>16.249099999999999</v>
-      </c>
-      <c r="G33" s="1">
-        <v>14.5474</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>3</v>
       </c>
-      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>0.84299999999999997</v>
       </c>
@@ -4714,31 +4952,35 @@
         <v>113.402</v>
       </c>
       <c r="C34" s="1">
+        <v>11.1435</v>
+      </c>
+      <c r="D34" s="1">
         <v>110.773</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
+      <c r="E34" s="1">
+        <v>11.697699999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <f>D34*10^(-3)</f>
         <v>0.110773</v>
       </c>
-      <c r="E34" s="1">
+      <c r="G34" s="1">
+        <f>E34*10^(-3)</f>
+        <v>1.16977E-2</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.69974999999999998</v>
       </c>
-      <c r="F34" s="1">
-        <v>11.1435</v>
-      </c>
-      <c r="G34" s="1">
-        <v>11.697699999999999</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="M34" s="1"/>
       <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>0.83499999999999996</v>
       </c>
@@ -4746,31 +4988,35 @@
         <v>76.323670000000007</v>
       </c>
       <c r="C35" s="1">
+        <v>15.896229999999999</v>
+      </c>
+      <c r="D35" s="1">
         <v>76.9756</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
+      <c r="E35" s="1">
+        <v>14.992699999999999</v>
+      </c>
+      <c r="F35" s="1">
+        <f>D35*10^(-3)</f>
         <v>7.6975600000000005E-2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="G35" s="1">
+        <f>E35*10^(-3)</f>
+        <v>1.4992699999999999E-2</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.61350000000000005</v>
       </c>
-      <c r="F35" s="1">
-        <v>15.896229999999999</v>
-      </c>
-      <c r="G35" s="1">
-        <v>14.992699999999999</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>2</v>
       </c>
-      <c r="M35" s="1"/>
       <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -4778,25 +5024,29 @@
         <v>76.352500000000006</v>
       </c>
       <c r="C36" s="1">
+        <v>13.6165</v>
+      </c>
+      <c r="D36" s="1">
         <v>94.342600000000004</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
+      <c r="E36" s="1">
+        <v>15.706989999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <f>D36*10^(-3)</f>
         <v>9.4342600000000013E-2</v>
       </c>
-      <c r="E36" s="1">
+      <c r="G36" s="1">
+        <f>E36*10^(-3)</f>
+        <v>1.5706990000000001E-2</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.61475000000000002</v>
       </c>
-      <c r="F36" s="1">
-        <v>13.6165</v>
-      </c>
-      <c r="G36" s="1">
-        <v>15.706989999999999</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>3</v>
       </c>
     </row>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -3752,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Desktop\inzynierka\inz\uCT+compression_(razem)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="3240" windowWidth="23900" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10335" yWindow="3840" windowWidth="23895" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -91,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,6 +122,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="8">
@@ -158,8 +170,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF60497A"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,7 +271,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -332,6 +347,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,7 +405,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
                   <c:pt idx="0">
-                    <c:v>22.26044</c:v>
+                    <c:v>22.260439999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16.64066</c:v>
@@ -397,16 +420,16 @@
                     <c:v>15.03735</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.325388</c:v>
+                    <c:v>8.3253880000000002</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.939463</c:v>
+                    <c:v>8.9394629999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.323284</c:v>
+                    <c:v>6.3232840000000001</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.537225</c:v>
+                    <c:v>7.5372250000000003</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>12.72762</c:v>
@@ -418,70 +441,70 @@
                     <c:v>7.310073</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.531114</c:v>
+                    <c:v>5.5311139999999996</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.0212</c:v>
+                    <c:v>1.0212000000000001</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.468844</c:v>
+                    <c:v>7.4688439999999998</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4.474925</c:v>
+                    <c:v>4.4749249999999998</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>10.1004</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>6.600627</c:v>
+                    <c:v>6.6006270000000002</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>3.64811</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>14.95358</c:v>
+                    <c:v>14.953580000000001</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>11.98908</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>4.577349</c:v>
+                    <c:v>4.5773489999999999</c:v>
                   </c:pt>
                   <c:pt idx="22">
                     <c:v>10.62941</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>8.051788</c:v>
+                    <c:v>8.0517880000000002</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7.709002</c:v>
+                    <c:v>7.7090019999999999</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>9.127616</c:v>
+                    <c:v>9.1276159999999997</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>10.33557</c:v>
+                    <c:v>10.335570000000001</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>10.98445</c:v>
+                    <c:v>10.984450000000001</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>12.8082</c:v>
+                    <c:v>12.808199999999999</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>19.11587</c:v>
+                    <c:v>19.115870000000001</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>12.92378</c:v>
+                    <c:v>12.923780000000001</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>16.2491</c:v>
+                    <c:v>16.249099999999999</c:v>
                   </c:pt>
                   <c:pt idx="32">
                     <c:v>11.1435</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>15.89623</c:v>
+                    <c:v>15.896229999999999</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>13.6165</c:v>
@@ -496,7 +519,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
                   <c:pt idx="0">
-                    <c:v>22.26044</c:v>
+                    <c:v>22.260439999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>16.64066</c:v>
@@ -511,16 +534,16 @@
                     <c:v>15.03735</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.325388</c:v>
+                    <c:v>8.3253880000000002</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.939463</c:v>
+                    <c:v>8.9394629999999999</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>6.323284</c:v>
+                    <c:v>6.3232840000000001</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.537225</c:v>
+                    <c:v>7.5372250000000003</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>12.72762</c:v>
@@ -532,70 +555,70 @@
                     <c:v>7.310073</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.531114</c:v>
+                    <c:v>5.5311139999999996</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.0212</c:v>
+                    <c:v>1.0212000000000001</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>7.468844</c:v>
+                    <c:v>7.4688439999999998</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4.474925</c:v>
+                    <c:v>4.4749249999999998</c:v>
                   </c:pt>
                   <c:pt idx="16">
                     <c:v>10.1004</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>6.600627</c:v>
+                    <c:v>6.6006270000000002</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>3.64811</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>14.95358</c:v>
+                    <c:v>14.953580000000001</c:v>
                   </c:pt>
                   <c:pt idx="20">
                     <c:v>11.98908</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>4.577349</c:v>
+                    <c:v>4.5773489999999999</c:v>
                   </c:pt>
                   <c:pt idx="22">
                     <c:v>10.62941</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>8.051788</c:v>
+                    <c:v>8.0517880000000002</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7.709002</c:v>
+                    <c:v>7.7090019999999999</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>9.127616</c:v>
+                    <c:v>9.1276159999999997</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>10.33557</c:v>
+                    <c:v>10.335570000000001</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>10.98445</c:v>
+                    <c:v>10.984450000000001</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>12.8082</c:v>
+                    <c:v>12.808199999999999</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>19.11587</c:v>
+                    <c:v>19.115870000000001</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>12.92378</c:v>
+                    <c:v>12.923780000000001</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>16.2491</c:v>
+                    <c:v>16.249099999999999</c:v>
                   </c:pt>
                   <c:pt idx="32">
                     <c:v>11.1435</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>15.89623</c:v>
+                    <c:v>15.896229999999999</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>13.6165</c:v>
@@ -609,7 +632,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.0"/>
+            <c:val val="0"/>
           </c:errBars>
           <c:xVal>
             <c:numRef>
@@ -618,25 +641,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.796</c:v>
+                  <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.677</c:v>
+                  <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.661</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.662</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.883</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.877</c:v>
@@ -645,37 +668,37 @@
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.699</c:v>
+                  <c:v>0.69899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.645</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.646</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.838</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.836</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.735</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.734</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.732</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.626</c:v>
@@ -687,40 +710,40 @@
                   <c:v>0.628</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.845</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.667</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.665</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.666</c:v>
+                  <c:v>0.66600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.835</c:v>
+                  <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,7 +764,7 @@
                   <c:v>107.146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.5533</c:v>
+                  <c:v>122.55329999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>141.465</c:v>
@@ -756,31 +779,31 @@
                   <c:v>105.2865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.793</c:v>
+                  <c:v>73.793000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142.104</c:v>
+                  <c:v>142.10400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>151.4425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>150.48</c:v>
+                  <c:v>150.47999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>145.485</c:v>
+                  <c:v>145.48500000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>142.8333</c:v>
+                  <c:v>142.83330000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>117.455</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.03667</c:v>
+                  <c:v>77.036670000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>57.0392</c:v>
+                  <c:v>57.039200000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>106.2273</c:v>
@@ -789,34 +812,34 @@
                   <c:v>121.3567</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>131.4767</c:v>
+                  <c:v>131.47669999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>152.465</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133.385</c:v>
+                  <c:v>133.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>151.755</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>69.661</c:v>
+                  <c:v>69.661000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.062</c:v>
+                  <c:v>80.061999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.27133000000001</c:v>
+                  <c:v>90.271330000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140.0433</c:v>
+                  <c:v>140.04329999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>125.4633</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>152.1625</c:v>
+                  <c:v>152.16249999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>124.5617</c:v>
@@ -831,10 +854,10 @@
                   <c:v>113.402</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76.32367000000001</c:v>
+                  <c:v>76.323670000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>76.35250000000001</c:v>
+                  <c:v>76.352500000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2078634008"/>
-        <c:axId val="2107213400"/>
+        <c:axId val="1574530912"/>
+        <c:axId val="1574523840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2078634008"/>
+        <c:axId val="1574530912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,12 +905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107213400"/>
+        <c:crossAx val="1574523840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107213400"/>
+        <c:axId val="1574523840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2078634008"/>
+        <c:crossAx val="1574530912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -938,7 +961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -999,7 +1022,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.0"/>
+            <c:val val="0"/>
           </c:errBars>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1013,109 +1036,109 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="35"/>
                   <c:pt idx="0">
-                    <c:v>20.2769</c:v>
+                    <c:v>20.276900000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>20.4831</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>19.3725</c:v>
+                    <c:v>19.372499999999999</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12.9271</c:v>
+                    <c:v>12.927099999999999</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.1291</c:v>
+                    <c:v>6.1291000000000002</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.6501</c:v>
+                    <c:v>9.6501000000000001</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.819</c:v>
+                    <c:v>8.8190000000000008</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.3295</c:v>
+                    <c:v>2.3294999999999999</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>6.9802</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6663</c:v>
+                    <c:v>8.6662999999999997</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.4776</c:v>
+                    <c:v>8.4776000000000007</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.1644</c:v>
+                    <c:v>7.1643999999999997</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1228</c:v>
+                    <c:v>3.1227999999999998</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.6619</c:v>
+                    <c:v>2.6619000000000002</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>3.3132</c:v>
+                    <c:v>3.3132000000000001</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>2.9108</c:v>
+                    <c:v>2.9108000000000001</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>4.9484</c:v>
+                    <c:v>4.9484000000000004</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>7.2104</c:v>
+                    <c:v>7.2103999999999999</c:v>
                   </c:pt>
                   <c:pt idx="18">
                     <c:v>1.0219</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>8.2385</c:v>
+                    <c:v>8.2385000000000002</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>4.8127</c:v>
+                    <c:v>4.8127000000000004</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>2.1063</c:v>
+                    <c:v>2.1063000000000001</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>6.0113</c:v>
+                    <c:v>6.0113000000000003</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>4.6602</c:v>
+                    <c:v>4.6601999999999997</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>7.8903</c:v>
+                    <c:v>7.8902999999999999</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1.73846</c:v>
+                    <c:v>1.7384599999999999</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>9.7705</c:v>
+                    <c:v>9.7705000000000002</c:v>
                   </c:pt>
                   <c:pt idx="27">
                     <c:v>4.8891</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>3.2041</c:v>
+                    <c:v>3.2040999999999999</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>6.7699</c:v>
+                    <c:v>6.7698999999999998</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>7.655</c:v>
+                    <c:v>7.6550000000000002</c:v>
                   </c:pt>
                   <c:pt idx="31">
                     <c:v>14.5474</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>11.6977</c:v>
+                    <c:v>11.697699999999999</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>14.9927</c:v>
+                    <c:v>14.992699999999999</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>15.70699</c:v>
+                    <c:v>15.706989999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1125,7 +1148,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1137,25 +1160,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.796</c:v>
+                  <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.677</c:v>
+                  <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.661</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.662</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.883</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.877</c:v>
@@ -1164,37 +1187,37 @@
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.699</c:v>
+                  <c:v>0.69899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.645</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.646</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.838</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.836</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.735</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.734</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.732</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.626</c:v>
@@ -1206,40 +1229,40 @@
                   <c:v>0.628</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.845</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.667</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.665</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.666</c:v>
+                  <c:v>0.66600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.835</c:v>
+                  <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1277,7 @@
                   <c:v>119.9144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.094</c:v>
+                  <c:v>135.09399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>107.0868</c:v>
@@ -1263,31 +1286,31 @@
                   <c:v>115.9383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144.385</c:v>
+                  <c:v>144.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.7523</c:v>
+                  <c:v>105.75230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.031</c:v>
+                  <c:v>70.031000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>104.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.9672</c:v>
+                  <c:v>74.967200000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.64</c:v>
+                  <c:v>141.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>151.7775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154.156</c:v>
+                  <c:v>154.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146.7375</c:v>
+                  <c:v>146.73750000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>144.06</c:v>
@@ -1296,10 +1319,10 @@
                   <c:v>119.595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.85299999999999</c:v>
+                  <c:v>82.852999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62.0023</c:v>
+                  <c:v>62.002299999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>104.699</c:v>
@@ -1308,25 +1331,25 @@
                   <c:v>120.527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.4833</c:v>
+                  <c:v>128.48330000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155.4625</c:v>
+                  <c:v>155.46250000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130.77</c:v>
+                  <c:v>130.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.7275</c:v>
+                  <c:v>149.72749999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.8136</c:v>
+                  <c:v>65.813599999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.492</c:v>
+                  <c:v>80.492000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.966</c:v>
+                  <c:v>93.965999999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>138.5033</c:v>
@@ -1338,7 +1361,7 @@
                   <c:v>157.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>133.6167</c:v>
+                  <c:v>133.61670000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>134.655</c:v>
@@ -1353,7 +1376,7 @@
                   <c:v>76.9756</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94.3426</c:v>
+                  <c:v>94.342600000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107252952"/>
-        <c:axId val="2107258392"/>
+        <c:axId val="1474711600"/>
+        <c:axId val="1474712144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107252952"/>
+        <c:axId val="1474711600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,12 +1424,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107258392"/>
+        <c:crossAx val="1474712144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107258392"/>
+        <c:axId val="1474712144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107252952"/>
+        <c:crossAx val="1474711600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1457,7 +1480,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1484,10 +1507,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.039026755786509"/>
-          <c:y val="0.0540184453227931"/>
-          <c:w val="0.86788175092723"/>
-          <c:h val="0.892592145918469"/>
+          <c:x val="3.9026755786509E-2"/>
+          <c:y val="5.4018445322793103E-2"/>
+          <c:w val="0.86788175092722997"/>
+          <c:h val="0.89259214591846903"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1509,7 +1532,7 @@
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.0"/>
+            <c:val val="0"/>
           </c:errBars>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1523,13 +1546,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>20.2769</c:v>
+                    <c:v>20.276900000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>20.4831</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>19.3725</c:v>
+                    <c:v>19.372499999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1539,7 +1562,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1551,13 +1574,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.796</c:v>
+                  <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.795</c:v>
+                  <c:v>0.79500000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1595,7 @@
                   <c:v>119.9144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.094</c:v>
+                  <c:v>135.09399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>107.0868</c:v>
@@ -1611,13 +1634,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>12.9271</c:v>
+                    <c:v>12.927099999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.1291</c:v>
+                    <c:v>6.1291000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.6501</c:v>
+                    <c:v>9.6501000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1627,7 +1650,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1639,13 +1662,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.677</c:v>
+                  <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.661</c:v>
+                  <c:v>0.66100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.662</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,10 +1683,10 @@
                   <c:v>115.9383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144.385</c:v>
+                  <c:v>144.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.7523</c:v>
+                  <c:v>105.75230000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,10 +1722,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.819</c:v>
+                    <c:v>8.8190000000000008</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.3295</c:v>
+                    <c:v>2.3294999999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>6.9802</c:v>
@@ -1715,7 +1738,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1727,7 +1750,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.883</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.877</c:v>
@@ -1745,13 +1768,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>70.031</c:v>
+                  <c:v>70.031000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>104.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.9672</c:v>
+                  <c:v>74.967200000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,10 +1810,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
                   <c:pt idx="0">
-                    <c:v>8.6663</c:v>
+                    <c:v>8.6662999999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.4776</c:v>
+                    <c:v>8.4776000000000007</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1800,7 +1823,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1812,10 +1835,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.699</c:v>
+                  <c:v>0.69899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,7 +1850,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>141.64</c:v>
+                  <c:v>141.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>151.7775</c:v>
@@ -1866,13 +1889,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.3132</c:v>
+                    <c:v>3.3132000000000001</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9108</c:v>
+                    <c:v>2.9108000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.9484</c:v>
+                    <c:v>4.9484000000000004</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1882,7 +1905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1894,13 +1917,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.838</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.836</c:v>
+                  <c:v>0.83599999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,10 +1938,10 @@
                   <c:v>119.595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.85299999999999</c:v>
+                  <c:v>82.852999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.0023</c:v>
+                  <c:v>62.002299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,13 +1977,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.2104</c:v>
+                    <c:v>7.2103999999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>1.0219</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2385</c:v>
+                    <c:v>8.2385000000000002</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1970,7 +1993,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -1982,13 +2005,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.735</c:v>
+                  <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.734</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.732</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2029,7 @@
                   <c:v>120.527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.4833</c:v>
+                  <c:v>128.48330000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2042,13 +2065,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>4.8127</c:v>
+                    <c:v>4.8127000000000004</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.1063</c:v>
+                    <c:v>2.1063000000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.0113</c:v>
+                    <c:v>6.0113000000000003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2058,7 +2081,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2088,13 +2111,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>155.4625</c:v>
+                  <c:v>155.46250000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130.77</c:v>
+                  <c:v>130.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.7275</c:v>
+                  <c:v>149.72749999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,13 +2153,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.051788</c:v>
+                    <c:v>8.0517880000000002</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.709002</c:v>
+                    <c:v>7.7090019999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>9.127616</c:v>
+                    <c:v>9.1276159999999997</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2146,7 +2169,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2158,13 +2181,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.845</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.844</c:v>
+                  <c:v>0.84399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,13 +2199,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>65.8136</c:v>
+                  <c:v>65.813599999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.492</c:v>
+                  <c:v>80.492000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.966</c:v>
+                  <c:v>93.965999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,13 +2241,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>9.7705</c:v>
+                    <c:v>9.7705000000000002</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.8891</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.2041</c:v>
+                    <c:v>3.2040999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2234,7 +2257,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2246,13 +2269,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.667</c:v>
+                  <c:v>0.66700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.665</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.666</c:v>
+                  <c:v>0.66600000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,10 +2329,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>6.7699</c:v>
+                    <c:v>6.7698999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.655</c:v>
+                    <c:v>7.6550000000000002</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>14.5474</c:v>
@@ -2322,7 +2345,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2334,13 +2357,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.697</c:v>
+                  <c:v>0.69699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.693</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,7 +2375,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.6167</c:v>
+                  <c:v>133.61670000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>134.655</c:v>
@@ -2394,13 +2417,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>11.6977</c:v>
+                    <c:v>11.697699999999999</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>14.9927</c:v>
+                    <c:v>14.992699999999999</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15.70699</c:v>
+                    <c:v>15.706989999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2410,7 +2433,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2422,13 +2445,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.843</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.835</c:v>
+                  <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.834</c:v>
+                  <c:v>0.83399999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2446,7 +2469,7 @@
                   <c:v>76.9756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.3426</c:v>
+                  <c:v>94.342600000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,13 +2505,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1644</c:v>
+                    <c:v>7.1643999999999997</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1228</c:v>
+                    <c:v>3.1227999999999998</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.6619</c:v>
+                    <c:v>2.6619000000000002</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2498,7 +2521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numLit>
             </c:minus>
@@ -2510,13 +2533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.645</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.646</c:v>
+                  <c:v>0.64600000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2528,10 +2551,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>154.156</c:v>
+                  <c:v>154.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146.7375</c:v>
+                  <c:v>146.73750000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>144.06</c:v>
@@ -2549,11 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107377352"/>
-        <c:axId val="2107382840"/>
+        <c:axId val="1474709968"/>
+        <c:axId val="1570090960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107377352"/>
+        <c:axId val="1474709968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2583,12 +2606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107382840"/>
+        <c:crossAx val="1570090960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107382840"/>
+        <c:axId val="1570090960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107377352"/>
+        <c:crossAx val="1474709968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2634,7 +2657,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2675,106 +2698,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.6095</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60175</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57725</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52475</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53875</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5385</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67975</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6075</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63625</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54775</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.539</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5105</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52225</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61075</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.592</c:v>
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56125</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62675</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56875</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5225</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54325</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64775</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63775</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.631</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5485</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5815</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5905</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.599</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69975</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6135</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61475</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2789,7 +2815,7 @@
                   <c:v>119.9144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.094</c:v>
+                  <c:v>135.09399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>107.0868</c:v>
@@ -2798,31 +2824,31 @@
                   <c:v>115.9383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144.385</c:v>
+                  <c:v>144.38499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.7523</c:v>
+                  <c:v>105.75230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.031</c:v>
+                  <c:v>70.031000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>104.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.9672</c:v>
+                  <c:v>74.967200000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.64</c:v>
+                  <c:v>141.63999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>151.7775</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154.156</c:v>
+                  <c:v>154.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146.7375</c:v>
+                  <c:v>146.73750000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>144.06</c:v>
@@ -2831,10 +2857,10 @@
                   <c:v>119.595</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82.85299999999999</c:v>
+                  <c:v>82.852999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62.0023</c:v>
+                  <c:v>62.002299999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>104.699</c:v>
@@ -2843,25 +2869,25 @@
                   <c:v>120.527</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.4833</c:v>
+                  <c:v>128.48330000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155.4625</c:v>
+                  <c:v>155.46250000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130.77</c:v>
+                  <c:v>130.77000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149.7275</c:v>
+                  <c:v>149.72749999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>65.8136</c:v>
+                  <c:v>65.813599999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.492</c:v>
+                  <c:v>80.492000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.966</c:v>
+                  <c:v>93.965999999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>138.5033</c:v>
@@ -2873,7 +2899,7 @@
                   <c:v>157.29</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>133.6167</c:v>
+                  <c:v>133.61670000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>134.655</c:v>
@@ -2888,7 +2914,7 @@
                   <c:v>76.9756</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>94.3426</c:v>
+                  <c:v>94.342600000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,11 +2929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107280216"/>
-        <c:axId val="2107277464"/>
+        <c:axId val="1554529360"/>
+        <c:axId val="1200251808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107280216"/>
+        <c:axId val="1554529360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2918,15 +2944,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107277464"/>
+        <c:crossAx val="1200251808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107277464"/>
+        <c:axId val="1200251808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1800.0"/>
+          <c:max val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2935,7 +2961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107280216"/>
+        <c:crossAx val="1554529360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2951,7 +2977,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2992,106 +3018,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.6095</c:v>
+                  <c:v>0.20499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60175</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57725</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52475</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53875</c:v>
+                  <c:v>0.33900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5385</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67975</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6075</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63625</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57</c:v>
+                  <c:v>0.30199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54775</c:v>
+                  <c:v>0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.539</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5105</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52225</c:v>
+                  <c:v>0.35399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61075</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.592</c:v>
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.56125</c:v>
+                  <c:v>0.26800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.62675</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56875</c:v>
+                  <c:v>0.374</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5225</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.54325</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64775</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63775</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.631</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5485</c:v>
+                  <c:v>0.33300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5815</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5905</c:v>
+                  <c:v>0.33400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.53</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.599</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.69975</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.6135</c:v>
+                  <c:v>0.16500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.61475</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,88 +3135,88 @@
                   <c:v>0.1199144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.135094</c:v>
+                  <c:v>0.13509399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1070868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1159383</c:v>
+                  <c:v>0.11593829999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.144385</c:v>
+                  <c:v>0.14438499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1057523</c:v>
+                  <c:v>0.10575230000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.070031</c:v>
+                  <c:v>7.003100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.10425</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0749672</c:v>
+                  <c:v>7.4967200000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14164</c:v>
+                  <c:v>0.14163999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1517775</c:v>
+                  <c:v>0.15177750000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.154156</c:v>
+                  <c:v>0.15415600000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1467375</c:v>
+                  <c:v>0.14673750000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14406</c:v>
+                  <c:v>0.14405999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.119595</c:v>
+                  <c:v>0.11959500000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.082853</c:v>
+                  <c:v>8.2852999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0620023</c:v>
+                  <c:v>6.2002299999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.104699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.120527</c:v>
+                  <c:v>0.12052700000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1284833</c:v>
+                  <c:v>0.12848330000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.1554625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13077</c:v>
+                  <c:v>0.13077000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1497275</c:v>
+                  <c:v>0.14972749999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0658136</c:v>
+                  <c:v>6.58136E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.080492</c:v>
+                  <c:v>8.0492000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.093966</c:v>
+                  <c:v>9.3965999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.1385033</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1272167</c:v>
+                  <c:v>0.12721670000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.15729</c:v>
+                  <c:v>0.15728999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.1336167</c:v>
@@ -3196,16 +3225,16 @@
                   <c:v>0.134655</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.128352</c:v>
+                  <c:v>0.12835199999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.110773</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.0769756</c:v>
+                  <c:v>7.6975600000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0943426</c:v>
+                  <c:v>9.4342600000000013E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,11 +3249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107412280"/>
-        <c:axId val="2107415304"/>
+        <c:axId val="1200252896"/>
+        <c:axId val="1200248544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107412280"/>
+        <c:axId val="1200252896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,15 +3263,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107415304"/>
+        <c:crossAx val="1200248544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107415304"/>
+        <c:axId val="1200248544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35.0"/>
+          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3251,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107412280"/>
+        <c:crossAx val="1200252896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3267,7 +3296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3752,16 +3781,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="1"/>
+    <col min="1" max="7" width="10.875" style="1"/>
+    <col min="9" max="10" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="75">
+    <row r="1" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3825,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -3812,15 +3842,15 @@
         <v>20.276900000000001</v>
       </c>
       <c r="F2" s="1">
-        <f>D2*10^(-3)</f>
+        <f t="shared" ref="F2:F36" si="0">D2*10^(-3)</f>
         <v>0.1199144</v>
       </c>
       <c r="G2" s="1">
-        <f>E2*10^(-3)</f>
+        <f t="shared" ref="G2:G36" si="1">E2*10^(-3)</f>
         <v>2.02769E-2</v>
       </c>
-      <c r="H2" s="1">
-        <v>0.60950000000000004</v>
+      <c r="H2" s="8">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
@@ -3831,7 +3861,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.79600000000000004</v>
       </c>
@@ -3848,15 +3878,15 @@
         <v>20.4831</v>
       </c>
       <c r="F3" s="1">
-        <f>D3*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.13509399999999999</v>
       </c>
       <c r="G3" s="1">
-        <f>E3*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>2.0483100000000001E-2</v>
       </c>
-      <c r="H3" s="1">
-        <v>0.60175000000000001</v>
+      <c r="H3" s="8">
+        <v>0.20399999999999999</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>3</v>
@@ -3867,7 +3897,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.79500000000000004</v>
       </c>
@@ -3884,15 +3914,15 @@
         <v>19.372499999999999</v>
       </c>
       <c r="F4" s="1">
-        <f>D4*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.1070868</v>
       </c>
       <c r="G4" s="1">
-        <f>E4*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.9372500000000001E-2</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.57725000000000004</v>
+      <c r="H4" s="8">
+        <v>0.20300000000000001</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>3</v>
@@ -3903,7 +3933,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.67700000000000005</v>
       </c>
@@ -3920,15 +3950,15 @@
         <v>12.927099999999999</v>
       </c>
       <c r="F5" s="1">
-        <f>D5*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.11593829999999999</v>
       </c>
       <c r="G5" s="1">
-        <f>E5*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.29271E-2</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.52475000000000005</v>
+      <c r="H5" s="8">
+        <v>0.32300000000000001</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>4</v>
@@ -3939,7 +3969,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.66100000000000003</v>
       </c>
@@ -3956,15 +3986,15 @@
         <v>6.1291000000000002</v>
       </c>
       <c r="F6" s="1">
-        <f>D6*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.14438499999999999</v>
       </c>
       <c r="G6" s="1">
-        <f>E6*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>6.1291000000000002E-3</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.53874999999999995</v>
+      <c r="H6" s="8">
+        <v>0.33900000000000002</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -3975,7 +4005,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.66200000000000003</v>
       </c>
@@ -3992,15 +4022,15 @@
         <v>9.6501000000000001</v>
       </c>
       <c r="F7" s="1">
-        <f>D7*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.10575230000000001</v>
       </c>
       <c r="G7" s="1">
-        <f>E7*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>9.6501E-3</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.53849999999999998</v>
+      <c r="H7" s="8">
+        <v>0.33800000000000002</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
@@ -4011,7 +4041,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.88300000000000001</v>
       </c>
@@ -4028,15 +4058,15 @@
         <v>8.8190000000000008</v>
       </c>
       <c r="F8" s="1">
-        <f>D8*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.003100000000001E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>E8*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>8.8190000000000004E-3</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.67974999999999997</v>
+      <c r="H8" s="8">
+        <v>0.11700000000000001</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>5</v>
@@ -4047,7 +4077,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="30">
+    <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.877</v>
       </c>
@@ -4064,15 +4094,15 @@
         <v>2.3294999999999999</v>
       </c>
       <c r="F9" s="1">
-        <f>D9*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.10425</v>
       </c>
       <c r="G9" s="1">
-        <f>E9*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>2.3295E-3</v>
       </c>
-      <c r="H9" s="1">
-        <v>0.60750000000000004</v>
+      <c r="H9" s="8">
+        <v>0.123</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>5</v>
@@ -4083,7 +4113,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="30">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.88</v>
       </c>
@@ -4100,15 +4130,15 @@
         <v>6.9802</v>
       </c>
       <c r="F10" s="1">
-        <f>D10*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.4967200000000012E-2</v>
       </c>
       <c r="G10" s="1">
-        <f>E10*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>6.9801999999999998E-3</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.63624999999999998</v>
+      <c r="H10" s="8">
+        <v>0.112</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>5</v>
@@ -4119,7 +4149,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -4136,15 +4166,15 @@
         <v>8.6662999999999997</v>
       </c>
       <c r="F11" s="1">
-        <f>D11*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.14163999999999999</v>
       </c>
       <c r="G11" s="1">
-        <f>E11*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>8.6663E-3</v>
       </c>
-      <c r="H11" s="1">
-        <v>0.56999999999999995</v>
+      <c r="H11" s="8">
+        <v>0.30199999999999999</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>6</v>
@@ -4155,7 +4185,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.69899999999999995</v>
       </c>
@@ -4172,15 +4202,15 @@
         <v>8.4776000000000007</v>
       </c>
       <c r="F12" s="1">
-        <f>D12*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.15177750000000001</v>
       </c>
       <c r="G12" s="1">
-        <f>E12*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>8.4776000000000001E-3</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.54774999999999996</v>
+      <c r="H12" s="8">
+        <v>0.30099999999999999</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>6</v>
@@ -4191,7 +4221,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.64500000000000002</v>
       </c>
@@ -4208,15 +4238,15 @@
         <v>7.1643999999999997</v>
       </c>
       <c r="F13" s="1">
-        <f>D13*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.15415600000000002</v>
       </c>
       <c r="G13" s="1">
-        <f>E13*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>7.1643999999999996E-3</v>
       </c>
-      <c r="H13" s="1">
-        <v>0.53900000000000003</v>
+      <c r="H13" s="8">
+        <v>0.35499999999999998</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
@@ -4227,7 +4257,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.65</v>
       </c>
@@ -4244,15 +4274,15 @@
         <v>3.1227999999999998</v>
       </c>
       <c r="F14" s="1">
-        <f>D14*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.14673750000000002</v>
       </c>
       <c r="G14" s="1">
-        <f>E14*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>3.1227999999999998E-3</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.51049999999999995</v>
+      <c r="H14" s="8">
+        <v>0.35</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
@@ -4263,7 +4293,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.64600000000000002</v>
       </c>
@@ -4280,15 +4310,15 @@
         <v>2.6619000000000002</v>
       </c>
       <c r="F15" s="1">
-        <f>D15*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.14405999999999999</v>
       </c>
       <c r="G15" s="1">
-        <f>E15*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>2.6619E-3</v>
       </c>
-      <c r="H15" s="1">
-        <v>0.52224999999999999</v>
+      <c r="H15" s="8">
+        <v>0.35399999999999998</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
@@ -4299,7 +4329,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.83799999999999997</v>
       </c>
@@ -4316,15 +4346,15 @@
         <v>3.3132000000000001</v>
       </c>
       <c r="F16" s="1">
-        <f>D16*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.11959500000000001</v>
       </c>
       <c r="G16" s="1">
-        <f>E16*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>3.3132000000000001E-3</v>
       </c>
-      <c r="H16" s="1">
-        <v>0.61075000000000002</v>
+      <c r="H16" s="8">
+        <v>0.16200000000000001</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>8</v>
@@ -4335,7 +4365,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -4352,15 +4382,15 @@
         <v>2.9108000000000001</v>
       </c>
       <c r="F17" s="1">
-        <f>D17*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.2852999999999996E-2</v>
       </c>
       <c r="G17" s="1">
-        <f>E17*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>2.9108000000000003E-3</v>
       </c>
-      <c r="H17" s="1">
-        <v>0.59199999999999997</v>
+      <c r="H17" s="8">
+        <v>0.16600000000000001</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>8</v>
@@ -4371,7 +4401,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.83599999999999997</v>
       </c>
@@ -4388,12 +4418,15 @@
         <v>4.9484000000000004</v>
       </c>
       <c r="F18" s="1">
-        <f>D18*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.2002299999999996E-2</v>
       </c>
       <c r="G18" s="1">
-        <f>E18*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>4.9484000000000004E-3</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.16300000000000001</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>8</v>
@@ -4404,7 +4437,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.73499999999999999</v>
       </c>
@@ -4421,15 +4454,15 @@
         <v>7.2103999999999999</v>
       </c>
       <c r="F19" s="1">
-        <f>D19*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.104699</v>
       </c>
       <c r="G19" s="1">
-        <f>E19*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>7.2104000000000005E-3</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.57999999999999996</v>
+      <c r="H19" s="8">
+        <v>0.26500000000000001</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>9</v>
@@ -4440,7 +4473,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.73399999999999999</v>
       </c>
@@ -4457,15 +4490,15 @@
         <v>1.0219</v>
       </c>
       <c r="F20" s="1">
-        <f>D20*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.12052700000000001</v>
       </c>
       <c r="G20" s="1">
-        <f>E20*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.0219000000000001E-3</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.56125000000000003</v>
+      <c r="H20" s="8">
+        <v>0.26800000000000002</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>9</v>
@@ -4476,7 +4509,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.73199999999999998</v>
       </c>
@@ -4493,15 +4526,15 @@
         <v>8.2385000000000002</v>
       </c>
       <c r="F21" s="1">
-        <f>D21*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.12848330000000002</v>
       </c>
       <c r="G21" s="1">
-        <f>E21*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>8.238500000000001E-3</v>
       </c>
-      <c r="H21" s="1">
-        <v>0.62675000000000003</v>
+      <c r="H21" s="8">
+        <v>0.26600000000000001</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>9</v>
@@ -4512,7 +4545,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.626</v>
       </c>
@@ -4529,15 +4562,15 @@
         <v>4.8127000000000004</v>
       </c>
       <c r="F22" s="1">
-        <f>D22*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.1554625</v>
       </c>
       <c r="G22" s="1">
-        <f>E22*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>4.8127000000000005E-3</v>
       </c>
-      <c r="H22" s="1">
-        <v>0.56874999999999998</v>
+      <c r="H22" s="8">
+        <v>0.374</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>10</v>
@@ -4548,7 +4581,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.625</v>
       </c>
@@ -4565,15 +4598,15 @@
         <v>2.1063000000000001</v>
       </c>
       <c r="F23" s="1">
-        <f>D23*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.13077000000000003</v>
       </c>
       <c r="G23" s="1">
-        <f>E23*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>2.1063000000000002E-3</v>
       </c>
-      <c r="H23" s="1">
-        <v>0.52249999999999996</v>
+      <c r="H23" s="8">
+        <v>0.375</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>10</v>
@@ -4584,7 +4617,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.628</v>
       </c>
@@ -4601,15 +4634,15 @@
         <v>6.0113000000000003</v>
       </c>
       <c r="F24" s="1">
-        <f>D24*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.14972749999999999</v>
       </c>
       <c r="G24" s="1">
-        <f>E24*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>6.0113000000000007E-3</v>
       </c>
-      <c r="H24" s="1">
-        <v>0.54325000000000001</v>
+      <c r="H24" s="8">
+        <v>0.372</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>10</v>
@@ -4620,7 +4653,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.84499999999999997</v>
       </c>
@@ -4637,15 +4670,15 @@
         <v>4.6601999999999997</v>
       </c>
       <c r="F25" s="1">
-        <f>D25*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>6.58136E-2</v>
       </c>
       <c r="G25" s="1">
-        <f>E25*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>4.6601999999999998E-3</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.64775000000000005</v>
+      <c r="H25" s="8">
+        <v>0.155</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>11</v>
@@ -4656,7 +4689,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -4673,15 +4706,15 @@
         <v>7.8902999999999999</v>
       </c>
       <c r="F26" s="1">
-        <f>D26*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>8.0492000000000008E-2</v>
       </c>
       <c r="G26" s="1">
-        <f>E26*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>7.8902999999999994E-3</v>
       </c>
-      <c r="H26" s="1">
-        <v>0.63775000000000004</v>
+      <c r="H26" s="8">
+        <v>0.156</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>11</v>
@@ -4692,7 +4725,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.84399999999999997</v>
       </c>
@@ -4709,15 +4742,15 @@
         <v>1.7384599999999999</v>
       </c>
       <c r="F27" s="1">
-        <f>D27*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>9.3965999999999994E-2</v>
       </c>
       <c r="G27" s="1">
-        <f>E27*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.7384599999999998E-3</v>
       </c>
-      <c r="H27" s="1">
-        <v>0.63100000000000001</v>
+      <c r="H27" s="8">
+        <v>0.152</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>11</v>
@@ -4728,7 +4761,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.66700000000000004</v>
       </c>
@@ -4745,15 +4778,15 @@
         <v>9.7705000000000002</v>
       </c>
       <c r="F28" s="1">
-        <f>D28*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.1385033</v>
       </c>
       <c r="G28" s="1">
-        <f>E28*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>9.7704999999999997E-3</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.54849999999999999</v>
+      <c r="H28" s="8">
+        <v>0.33300000000000002</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>12</v>
@@ -4764,7 +4797,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.66500000000000004</v>
       </c>
@@ -4781,15 +4814,15 @@
         <v>4.8891</v>
       </c>
       <c r="F29" s="1">
-        <f>D29*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.12721670000000002</v>
       </c>
       <c r="G29" s="1">
-        <f>E29*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>4.8891000000000004E-3</v>
       </c>
-      <c r="H29" s="1">
-        <v>0.58150000000000002</v>
+      <c r="H29" s="8">
+        <v>0.33500000000000002</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>12</v>
@@ -4800,7 +4833,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.66600000000000004</v>
       </c>
@@ -4817,15 +4850,15 @@
         <v>3.2040999999999999</v>
       </c>
       <c r="F30" s="1">
-        <f>D30*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.15728999999999999</v>
       </c>
       <c r="G30" s="1">
-        <f>E30*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>3.2041000000000001E-3</v>
       </c>
-      <c r="H30" s="1">
-        <v>0.59050000000000002</v>
+      <c r="H30" s="8">
+        <v>0.33400000000000002</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>12</v>
@@ -4836,7 +4869,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.69699999999999995</v>
       </c>
@@ -4853,15 +4886,15 @@
         <v>6.7698999999999998</v>
       </c>
       <c r="F31" s="1">
-        <f>D31*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.1336167</v>
       </c>
       <c r="G31" s="1">
-        <f>E31*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>6.7698999999999997E-3</v>
       </c>
-      <c r="H31" s="1">
-        <v>0.53</v>
+      <c r="H31" s="8">
+        <v>0.30299999999999999</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
@@ -4872,7 +4905,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -4889,15 +4922,15 @@
         <v>7.6550000000000002</v>
       </c>
       <c r="F32" s="1">
-        <f>D32*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.134655</v>
       </c>
       <c r="G32" s="1">
-        <f>E32*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>7.6550000000000003E-3</v>
       </c>
-      <c r="H32" s="1">
-        <v>0.5625</v>
+      <c r="H32" s="8">
+        <v>0.307</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>13</v>
@@ -4908,7 +4941,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.69299999999999995</v>
       </c>
@@ -4925,15 +4958,15 @@
         <v>14.5474</v>
       </c>
       <c r="F33" s="1">
-        <f>D33*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.12835199999999999</v>
       </c>
       <c r="G33" s="1">
-        <f>E33*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.45474E-2</v>
       </c>
-      <c r="H33" s="1">
-        <v>0.59899999999999998</v>
+      <c r="H33" s="8">
+        <v>0.30599999999999999</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>13</v>
@@ -4944,7 +4977,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.84299999999999997</v>
       </c>
@@ -4961,15 +4994,15 @@
         <v>11.697699999999999</v>
       </c>
       <c r="F34" s="1">
-        <f>D34*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>0.110773</v>
       </c>
       <c r="G34" s="1">
-        <f>E34*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.16977E-2</v>
       </c>
-      <c r="H34" s="1">
-        <v>0.69974999999999998</v>
+      <c r="H34" s="8">
+        <v>0.157</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
@@ -4980,7 +5013,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.83499999999999996</v>
       </c>
@@ -4997,15 +5030,15 @@
         <v>14.992699999999999</v>
       </c>
       <c r="F35" s="1">
-        <f>D35*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>7.6975600000000005E-2</v>
       </c>
       <c r="G35" s="1">
-        <f>E35*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.4992699999999999E-2</v>
       </c>
-      <c r="H35" s="1">
-        <v>0.61350000000000005</v>
+      <c r="H35" s="8">
+        <v>0.16500000000000001</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
@@ -5016,7 +5049,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.83399999999999996</v>
       </c>
@@ -5033,15 +5066,15 @@
         <v>15.706989999999999</v>
       </c>
       <c r="F36" s="1">
-        <f>D36*10^(-3)</f>
+        <f t="shared" si="0"/>
         <v>9.4342600000000013E-2</v>
       </c>
       <c r="G36" s="1">
-        <f>E36*10^(-3)</f>
+        <f t="shared" si="1"/>
         <v>1.5706990000000001E-2</v>
       </c>
-      <c r="H36" s="1">
-        <v>0.61475000000000002</v>
+      <c r="H36" s="8">
+        <v>0.16200000000000001</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>14</v>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="3840" windowWidth="23895" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="10335" yWindow="4440" windowWidth="23895" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,16 +647,16 @@
                   <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.79699999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.67199999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.88300000000000001</c:v>
@@ -665,13 +665,13 @@
                   <c:v>0.877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.69900000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.64500000000000002</c:v>
@@ -689,16 +689,16 @@
                   <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.626</c:v>
@@ -707,7 +707,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.628</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.84499999999999997</c:v>
@@ -716,7 +716,7 @@
                   <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.84399999999999997</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.66700000000000004</c:v>
@@ -725,16 +725,16 @@
                   <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.66399999999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.84299999999999997</c:v>
@@ -743,7 +743,7 @@
                   <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.83399999999999996</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1574530912"/>
-        <c:axId val="1574523840"/>
+        <c:axId val="609535488"/>
+        <c:axId val="609536032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1574530912"/>
+        <c:axId val="609535488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,12 +905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1574523840"/>
+        <c:crossAx val="609536032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1574523840"/>
+        <c:axId val="609536032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1574530912"/>
+        <c:crossAx val="609535488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1166,16 +1166,16 @@
                   <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.79699999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.67199999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.88300000000000001</c:v>
@@ -1184,13 +1184,13 @@
                   <c:v>0.877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.69900000000000007</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.64500000000000002</c:v>
@@ -1208,16 +1208,16 @@
                   <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.626</c:v>
@@ -1226,7 +1226,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.628</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.84499999999999997</c:v>
@@ -1235,7 +1235,7 @@
                   <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.84399999999999997</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.66700000000000004</c:v>
@@ -1244,16 +1244,16 @@
                   <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.66399999999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.84299999999999997</c:v>
@@ -1262,7 +1262,7 @@
                   <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.83399999999999996</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1474711600"/>
-        <c:axId val="1474712144"/>
+        <c:axId val="609538752"/>
+        <c:axId val="654539008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1474711600"/>
+        <c:axId val="609538752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,12 +1424,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1474712144"/>
+        <c:crossAx val="654539008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1474712144"/>
+        <c:axId val="654539008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1474711600"/>
+        <c:crossAx val="609538752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1580,7 +1580,7 @@
                   <c:v>0.79600000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.79699999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,10 +1665,10 @@
                   <c:v>0.67700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66100000000000003</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.67199999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,7 +1756,7 @@
                   <c:v>0.877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,10 +1835,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.69900000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,7 +1923,7 @@
                   <c:v>0.83399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,10 +2008,10 @@
                   <c:v>0.73499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,7 +2099,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.628</c:v>
+                  <c:v>0.627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2187,7 +2187,7 @@
                   <c:v>0.84399999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84399999999999997</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,7 +2275,7 @@
                   <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66600000000000004</c:v>
+                  <c:v>0.66399999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,13 +2357,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.69699999999999995</c:v>
+                  <c:v>0.69700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69299999999999995</c:v>
+                  <c:v>0.69399999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,7 +2451,7 @@
                   <c:v>0.83499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83399999999999996</c:v>
+                  <c:v>0.83799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,11 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1474709968"/>
-        <c:axId val="1570090960"/>
+        <c:axId val="654536832"/>
+        <c:axId val="654540640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1474709968"/>
+        <c:axId val="654536832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2606,12 +2606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1570090960"/>
+        <c:crossAx val="654540640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1570090960"/>
+        <c:axId val="654540640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1474709968"/>
+        <c:crossAx val="654536832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2710,10 +2710,10 @@
                   <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.11700000000000001</c:v>
@@ -2752,7 +2752,7 @@
                   <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.26600000000000001</c:v>
@@ -2764,7 +2764,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.372</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.155</c:v>
@@ -2782,7 +2782,7 @@
                   <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.30299999999999999</c:v>
@@ -2929,11 +2929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1554529360"/>
-        <c:axId val="1200251808"/>
+        <c:axId val="654543360"/>
+        <c:axId val="654542272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1554529360"/>
+        <c:axId val="654543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2944,12 +2944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1200251808"/>
+        <c:crossAx val="654542272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1200251808"/>
+        <c:axId val="654542272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800"/>
@@ -2961,7 +2961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1554529360"/>
+        <c:crossAx val="654543360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3030,10 +3030,10 @@
                   <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33900000000000002</c:v>
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33800000000000002</c:v>
+                  <c:v>0.32800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.11700000000000001</c:v>
@@ -3072,7 +3072,7 @@
                   <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.26700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.26600000000000001</c:v>
@@ -3084,7 +3084,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.372</c:v>
+                  <c:v>0.373</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.155</c:v>
@@ -3102,7 +3102,7 @@
                   <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.30299999999999999</c:v>
@@ -3249,11 +3249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1200252896"/>
-        <c:axId val="1200248544"/>
+        <c:axId val="654538464"/>
+        <c:axId val="654544448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1200252896"/>
+        <c:axId val="654538464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,12 +3263,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1200248544"/>
+        <c:crossAx val="654544448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1200248544"/>
+        <c:axId val="654544448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -3280,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1200252896"/>
+        <c:crossAx val="654538464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3396,16 +3396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3426,16 +3426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3827,6 +3827,7 @@
     </row>
     <row r="2" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <f>1-H2</f>
         <v>0.79500000000000004</v>
       </c>
       <c r="B2" s="1">
@@ -3863,6 +3864,7 @@
     </row>
     <row r="3" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <f t="shared" ref="A3:A36" si="2">1-H3</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="B3" s="1">
@@ -3899,7 +3901,8 @@
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.79500000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.79699999999999993</v>
       </c>
       <c r="B4" s="1">
         <v>107.146</v>
@@ -3935,6 +3938,7 @@
     </row>
     <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" si="2"/>
         <v>0.67700000000000005</v>
       </c>
       <c r="B5" s="1">
@@ -3971,7 +3975,8 @@
     </row>
     <row r="6" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.66100000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.67300000000000004</v>
       </c>
       <c r="B6" s="1">
         <v>141.465</v>
@@ -3994,7 +3999,7 @@
         <v>6.1291000000000002E-3</v>
       </c>
       <c r="H6" s="8">
-        <v>0.33900000000000002</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -4007,7 +4012,8 @@
     </row>
     <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.66200000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.67199999999999993</v>
       </c>
       <c r="B7" s="1">
         <v>113.7833</v>
@@ -4030,7 +4036,7 @@
         <v>9.6501E-3</v>
       </c>
       <c r="H7" s="8">
-        <v>0.33800000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>4</v>
@@ -4043,6 +4049,7 @@
     </row>
     <row r="8" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="2"/>
         <v>0.88300000000000001</v>
       </c>
       <c r="B8" s="1">
@@ -4079,6 +4086,7 @@
     </row>
     <row r="9" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="2"/>
         <v>0.877</v>
       </c>
       <c r="B9" s="1">
@@ -4115,7 +4123,8 @@
     </row>
     <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.88</v>
+        <f t="shared" si="2"/>
+        <v>0.88800000000000001</v>
       </c>
       <c r="B10" s="1">
         <v>73.793000000000006</v>
@@ -4151,7 +4160,8 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.69699999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69799999999999995</v>
       </c>
       <c r="B11" s="1">
         <v>142.10400000000001</v>
@@ -4187,7 +4197,8 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.69899999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69900000000000007</v>
       </c>
       <c r="B12" s="1">
         <v>151.4425</v>
@@ -4223,6 +4234,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="2"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="B13" s="1">
@@ -4259,6 +4271,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="B14" s="1">
@@ -4295,6 +4308,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="2"/>
         <v>0.64600000000000002</v>
       </c>
       <c r="B15" s="1">
@@ -4331,6 +4345,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="2"/>
         <v>0.83799999999999997</v>
       </c>
       <c r="B16" s="1">
@@ -4367,6 +4382,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="2"/>
         <v>0.83399999999999996</v>
       </c>
       <c r="B17" s="1">
@@ -4403,7 +4419,8 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.83599999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.83699999999999997</v>
       </c>
       <c r="B18" s="1">
         <v>57.039200000000001</v>
@@ -4439,6 +4456,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="2"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="B19" s="1">
@@ -4475,7 +4493,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.73399999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.73299999999999998</v>
       </c>
       <c r="B20" s="1">
         <v>121.3567</v>
@@ -4498,7 +4517,7 @@
         <v>1.0219000000000001E-3</v>
       </c>
       <c r="H20" s="8">
-        <v>0.26800000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>9</v>
@@ -4511,7 +4530,8 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.73199999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.73399999999999999</v>
       </c>
       <c r="B21" s="1">
         <v>131.47669999999999</v>
@@ -4547,6 +4567,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="2"/>
         <v>0.626</v>
       </c>
       <c r="B22" s="1">
@@ -4583,6 +4604,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
       <c r="B23" s="1">
@@ -4619,7 +4641,8 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.628</v>
+        <f t="shared" si="2"/>
+        <v>0.627</v>
       </c>
       <c r="B24" s="1">
         <v>151.755</v>
@@ -4642,7 +4665,7 @@
         <v>6.0113000000000007E-3</v>
       </c>
       <c r="H24" s="8">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>10</v>
@@ -4655,6 +4678,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="2"/>
         <v>0.84499999999999997</v>
       </c>
       <c r="B25" s="1">
@@ -4691,6 +4715,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="2"/>
         <v>0.84399999999999997</v>
       </c>
       <c r="B26" s="1">
@@ -4727,7 +4752,8 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.84399999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.84799999999999998</v>
       </c>
       <c r="B27" s="1">
         <v>90.271330000000006</v>
@@ -4763,6 +4789,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="2"/>
         <v>0.66700000000000004</v>
       </c>
       <c r="B28" s="1">
@@ -4799,6 +4826,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="2"/>
         <v>0.66500000000000004</v>
       </c>
       <c r="B29" s="1">
@@ -4835,7 +4863,8 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.66600000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.66399999999999992</v>
       </c>
       <c r="B30" s="1">
         <v>152.16249999999999</v>
@@ -4858,7 +4887,7 @@
         <v>3.2041000000000001E-3</v>
       </c>
       <c r="H30" s="8">
-        <v>0.33400000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>12</v>
@@ -4871,7 +4900,8 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.69699999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69700000000000006</v>
       </c>
       <c r="B31" s="1">
         <v>124.5617</v>
@@ -4907,7 +4937,8 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.69299999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69300000000000006</v>
       </c>
       <c r="B32" s="1">
         <v>139.3075</v>
@@ -4943,7 +4974,8 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.69299999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.69399999999999995</v>
       </c>
       <c r="B33" s="1">
         <v>130.708</v>
@@ -4979,6 +5011,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="2"/>
         <v>0.84299999999999997</v>
       </c>
       <c r="B34" s="1">
@@ -5015,6 +5048,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="2"/>
         <v>0.83499999999999996</v>
       </c>
       <c r="B35" s="1">
@@ -5051,7 +5085,8 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.83399999999999996</v>
+        <f t="shared" si="2"/>
+        <v>0.83799999999999997</v>
       </c>
       <c r="B36" s="1">
         <v>76.352500000000006</v>

--- a/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
+++ b/uCT+compression_(razem)/Zbiorczo (version 1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="4440" windowWidth="23895" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="10335" yWindow="5040" windowWidth="23895" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="609535488"/>
-        <c:axId val="609536032"/>
+        <c:axId val="1890401328"/>
+        <c:axId val="1890394800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="609535488"/>
+        <c:axId val="1890401328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,12 +905,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609536032"/>
+        <c:crossAx val="1890394800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609536032"/>
+        <c:axId val="1890394800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609535488"/>
+        <c:crossAx val="1890401328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1391,11 +1391,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="609538752"/>
-        <c:axId val="654539008"/>
+        <c:axId val="1890399696"/>
+        <c:axId val="1890398064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="609538752"/>
+        <c:axId val="1890399696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,12 +1424,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654539008"/>
+        <c:crossAx val="1890398064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="654539008"/>
+        <c:axId val="1890398064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609538752"/>
+        <c:crossAx val="1890399696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,11 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654536832"/>
-        <c:axId val="654540640"/>
+        <c:axId val="1890395888"/>
+        <c:axId val="1986574640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="654536832"/>
+        <c:axId val="1890395888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.6"/>
@@ -2606,12 +2606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654540640"/>
+        <c:crossAx val="1986574640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="654540640"/>
+        <c:axId val="1986574640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654536832"/>
+        <c:crossAx val="1890395888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2929,11 +2929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654543360"/>
-        <c:axId val="654542272"/>
+        <c:axId val="1986578992"/>
+        <c:axId val="1986572464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="654543360"/>
+        <c:axId val="1986578992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2944,12 +2944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654542272"/>
+        <c:crossAx val="1986572464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="654542272"/>
+        <c:axId val="1986572464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1800"/>
@@ -2961,7 +2961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654543360"/>
+        <c:crossAx val="1986578992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3249,11 +3249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="654538464"/>
-        <c:axId val="654544448"/>
+        <c:axId val="1986573008"/>
+        <c:axId val="1986576816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="654538464"/>
+        <c:axId val="1986573008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,12 +3263,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654544448"/>
+        <c:crossAx val="1986576816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="654544448"/>
+        <c:axId val="1986576816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -3280,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654538464"/>
+        <c:crossAx val="1986573008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3366,16 +3366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170873</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
+      <xdr:rowOff>260927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>437572</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>18472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
